--- a/syllabus.xlsx
+++ b/syllabus.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anisa Spring\course files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anisa Spring\course files\anisa-spring-course\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA7631C3-03E7-4664-81C0-F0CF91668131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80089015-8100-45E1-BB83-FE46DDEF9DA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="-1290" windowWidth="20730" windowHeight="11160" xr2:uid="{964B4250-0E44-43A3-827A-148A57DAA8FC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" activeTab="1" xr2:uid="{964B4250-0E44-43A3-827A-148A57DAA8FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
-    <sheet name="Shopping App" sheetId="3" r:id="rId2"/>
-    <sheet name="Ecercise" sheetId="2" r:id="rId3"/>
+    <sheet name="OverTime" sheetId="4" r:id="rId2"/>
+    <sheet name="Shopping App" sheetId="3" r:id="rId3"/>
+    <sheet name="Ecercise" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="172">
   <si>
     <t>Session</t>
   </si>
@@ -611,6 +612,42 @@
 2. can be set at runtime
 3. multiple levels for logging
 https://www.javadoc.io/doc/org.slf4j/slf4j-api/1.7.32/org/slf4j/LoggerFactory.html</t>
+  </si>
+  <si>
+    <t>Session 7</t>
+  </si>
+  <si>
+    <t>contnue on logging</t>
+  </si>
+  <si>
+    <t xml:space="preserve">use impl slf4j-log4j12
+log4j.properties in classpath
+view slide 1 - simple log4j.properties
+Hierarchy logger same package concept
+https://logging.apache.org/log4j/1.2/manual.html#Logger_hierarchy
+https://logging.apache.org/log4j/1.2/apidocs/index.html
+visit following Types:
+1. Appender
+2.ConsoleAppender
+3. Layout
+add ExecutionTimerInterceptor and seee logs
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @RequestParam
+1. implement add organization
+2. display some errors such as duplicate mapping - Ambiguous mapping
+ @ModelAttribute
+@PathVariable</t>
+  </si>
+  <si>
+    <t>25/06/1400</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>over time mins</t>
   </si>
 </sst>
 </file>
@@ -729,11 +766,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1050,10 +1087,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0700D7B-E2DB-4A90-93C9-5BD63601E41E}">
-  <dimension ref="A1:E67"/>
+  <dimension ref="A1:E68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C47" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H54" sqref="H54"/>
+    <sheetView topLeftCell="A55" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1082,13 +1119,13 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="7"/>
@@ -1350,13 +1387,13 @@
       <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
@@ -1511,7 +1548,7 @@
       <c r="B31" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="C31" s="15" t="s">
         <v>39</v>
       </c>
       <c r="D31" s="4" t="s">
@@ -1520,13 +1557,13 @@
       <c r="E31" s="4"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
@@ -1671,13 +1708,13 @@
       <c r="E42" s="4"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="15" t="s">
+      <c r="A43" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="B43" s="15"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
     </row>
     <row r="44" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
@@ -1736,13 +1773,13 @@
       <c r="E47" s="4"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="15" t="s">
+      <c r="A48" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="B48" s="15"/>
-      <c r="C48" s="15"/>
-      <c r="D48" s="15"/>
-      <c r="E48" s="15"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="16"/>
     </row>
     <row r="49" spans="1:5" ht="127.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4"/>
@@ -1824,7 +1861,7 @@
         <v>5</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>80</v>
@@ -1835,26 +1872,30 @@
       <c r="E54" s="4"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="4"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="4"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="B55" s="16"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="16"/>
+    </row>
+    <row r="56" spans="1:5" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
         <v>5</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D56" s="4"/>
+        <v>166</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>167</v>
+      </c>
       <c r="E56" s="4"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
         <v>5</v>
       </c>
@@ -1862,9 +1903,11 @@
         <v>63</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D57" s="4"/>
+        <v>81</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>168</v>
+      </c>
       <c r="E57" s="4"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
@@ -1875,7 +1918,7 @@
         <v>63</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
@@ -1888,7 +1931,7 @@
         <v>63</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
@@ -1901,7 +1944,7 @@
         <v>63</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
@@ -1914,18 +1957,32 @@
         <v>63</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
     </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D67" t="s">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="4">
+        <v>5</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+    </row>
+    <row r="68" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D68" t="s">
         <v>158</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="A55:E55"/>
     <mergeCell ref="A20:E20"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A32:E32"/>
@@ -1947,11 +2004,46 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD86837A-08C1-4466-98F6-A3B9221015CB}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B2">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C0C14A6-F2E4-471F-BBA9-2EEFDE41F762}">
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2243,7 +2335,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B5709BD-7DC3-4F81-B292-F9301EE7DA56}">
   <dimension ref="A1:B6"/>
   <sheetViews>

--- a/syllabus.xlsx
+++ b/syllabus.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anisa Spring\course files\anisa-spring-course\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80089015-8100-45E1-BB83-FE46DDEF9DA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E7761E6-4ACC-43C6-B159-A6B52E1AC5AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" activeTab="1" xr2:uid="{964B4250-0E44-43A3-827A-148A57DAA8FC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" activeTab="2" xr2:uid="{964B4250-0E44-43A3-827A-148A57DAA8FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
     <sheet name="OverTime" sheetId="4" r:id="rId2"/>
     <sheet name="Shopping App" sheetId="3" r:id="rId3"/>
-    <sheet name="Ecercise" sheetId="2" r:id="rId4"/>
+    <sheet name="Excercise" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="177">
   <si>
     <t>Session</t>
   </si>
@@ -296,9 +296,6 @@
   </si>
   <si>
     <t>Session Attributes</t>
-  </si>
-  <si>
-    <t>Spring Form Tags</t>
   </si>
   <si>
     <t>Spring Form Validation</t>
@@ -648,6 +645,43 @@
   </si>
   <si>
     <t>over time mins</t>
+  </si>
+  <si>
+    <t>Session 8</t>
+  </si>
+  <si>
+    <t>Spring Form jsp Tags</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>introduced in Spring 2.0
+bundled in Spring-mvc.jar
+advantages:
+1. binding to Objects
+2. configurable field formatting
+3. redisplay of values on errors
+4. binding of error messages
+https://docs.spring.io/spring-framework/docs/5.3.x/reference/html/web.html#mvc-view-jsp-formtaglib
+RequestToViewNameTranslator Interfacce
+https://docs.spring.io/spring-framework/docs/current/javadoc-api/org/springframework/web/servlet/RequestToViewNameTranslator.html
+DefaultRequestToViewNameTranslator Class</t>
+  </si>
+  <si>
+    <t>7 slides
+create shoppingcard project
+ResourceHandlerRegistery</t>
+  </si>
+  <si>
+    <t>4 usage of @ModelAttribute
+https://docs.spring.io/spring-framework/docs/current/javadoc-api/org/springframework/web/bind/annotation/ModelAttribute.html
+1. upper of method without any attributes
+2. upper of method with name attribute
+3. upper of method with value attribute
+4. in method arguments
+2 ways remain
+ModelAndView sample usage (AddOrganizationController.addOrganization())</t>
   </si>
 </sst>
 </file>
@@ -1087,10 +1121,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0700D7B-E2DB-4A90-93C9-5BD63601E41E}">
-  <dimension ref="A1:E68"/>
+  <dimension ref="A1:E69"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView topLeftCell="A60" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1106,7 +1140,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>1</v>
@@ -1721,13 +1755,13 @@
         <v>5</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C44" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D44" s="10" t="s">
         <v>90</v>
-      </c>
-      <c r="D44" s="10" t="s">
-        <v>91</v>
       </c>
       <c r="E44" s="4"/>
     </row>
@@ -1736,45 +1770,45 @@
         <v>5</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E45" s="4"/>
     </row>
     <row r="46" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A46" s="4"/>
       <c r="B46" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E46" s="4"/>
     </row>
     <row r="47" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="4"/>
       <c r="B47" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C47" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D47" s="10" t="s">
         <v>95</v>
-      </c>
-      <c r="D47" s="10" t="s">
-        <v>96</v>
       </c>
       <c r="E47" s="4"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B48" s="16"/>
       <c r="C48" s="16"/>
@@ -1784,13 +1818,13 @@
     <row r="49" spans="1:5" ht="127.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4"/>
       <c r="B49" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C49" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C49" s="4" t="s">
-        <v>154</v>
-      </c>
       <c r="D49" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E49" s="4"/>
     </row>
@@ -1802,13 +1836,13 @@
         <v>63</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -1822,7 +1856,7 @@
         <v>78</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E51" s="4"/>
     </row>
@@ -1837,7 +1871,7 @@
         <v>69</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E52" s="4"/>
     </row>
@@ -1852,7 +1886,7 @@
         <v>79</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E53" s="4"/>
     </row>
@@ -1867,13 +1901,13 @@
         <v>80</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E54" s="4"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B55" s="16"/>
       <c r="C55" s="16"/>
@@ -1888,10 +1922,10 @@
         <v>80</v>
       </c>
       <c r="C56" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D56" s="10" t="s">
         <v>166</v>
-      </c>
-      <c r="D56" s="10" t="s">
-        <v>167</v>
       </c>
       <c r="E56" s="4"/>
     </row>
@@ -1906,82 +1940,100 @@
         <v>81</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E57" s="4"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="4">
-        <v>5</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="B58" s="16"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="16"/>
+    </row>
+    <row r="59" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>63</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D59" s="4"/>
+        <v>82</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>176</v>
+      </c>
       <c r="E59" s="4"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>63</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D60" s="4"/>
+        <v>172</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>174</v>
+      </c>
       <c r="E60" s="4"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>63</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D61" s="4"/>
+        <v>83</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>175</v>
+      </c>
       <c r="E61" s="4"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>63</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D62" s="4"/>
+        <v>84</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>173</v>
+      </c>
       <c r="E62" s="4"/>
     </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D68" t="s">
-        <v>158</v>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="4">
+        <v>8</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+    </row>
+    <row r="69" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D69" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="A58:E58"/>
     <mergeCell ref="A55:E55"/>
     <mergeCell ref="A20:E20"/>
     <mergeCell ref="A2:E2"/>
@@ -2007,8 +2059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD86837A-08C1-4466-98F6-A3B9221015CB}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2019,15 +2071,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B1" t="s">
         <v>170</v>
-      </c>
-      <c r="B1" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B2">
         <v>30</v>
@@ -2042,8 +2094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C0C14A6-F2E4-471F-BBA9-2EEFDE41F762}">
   <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2064,274 +2116,278 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G1" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G1" s="11" t="s">
+      <c r="H1" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="I1" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="I1" s="11" t="s">
-        <v>100</v>
-      </c>
       <c r="J1" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N1" s="2"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B2" s="13"/>
       <c r="D2" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G2" t="s">
         <v>113</v>
       </c>
-      <c r="G2" t="s">
-        <v>114</v>
-      </c>
       <c r="H2" t="s">
+        <v>118</v>
+      </c>
+      <c r="I2" t="s">
         <v>119</v>
       </c>
-      <c r="I2" t="s">
-        <v>120</v>
-      </c>
       <c r="J2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B3" s="13"/>
       <c r="D3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B4" s="13"/>
       <c r="D4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B5" s="13"/>
       <c r="D5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B6" s="13"/>
       <c r="D6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B7" s="13"/>
       <c r="D7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B8" s="13"/>
       <c r="D8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B9" s="13"/>
       <c r="D9" t="s">
-        <v>142</v>
+        <v>141</v>
+      </c>
+      <c r="I9" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B10" s="13"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B11" s="13"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="F12" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="F13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="F14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="F15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="F16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/syllabus.xlsx
+++ b/syllabus.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anisa Spring\course files\anisa-spring-course\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E7761E6-4ACC-43C6-B159-A6B52E1AC5AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3500CDC3-19F8-4721-A055-3DF116E18CF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" activeTab="2" xr2:uid="{964B4250-0E44-43A3-827A-148A57DAA8FC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" activeTab="1" xr2:uid="{964B4250-0E44-43A3-827A-148A57DAA8FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="188">
   <si>
     <t>Session</t>
   </si>
@@ -653,9 +653,6 @@
     <t>Spring Form jsp Tags</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>introduced in Spring 2.0
 bundled in Spring-mvc.jar
 advantages:
@@ -682,6 +679,62 @@
 4. in method arguments
 2 ways remain
 ModelAndView sample usage (AddOrganizationController.addOrganization())</t>
+  </si>
+  <si>
+    <t>Session 9</t>
+  </si>
+  <si>
+    <t>Spring MVC using Thymeleaf</t>
+  </si>
+  <si>
+    <t>Spring MVC using lombok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">create ProductCategory html page
+</t>
+  </si>
+  <si>
+    <t>08/07/1400</t>
+  </si>
+  <si>
+    <t>Spring Boot</t>
+  </si>
+  <si>
+    <t>produce SOAP and REST Webservices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">form:select items
+https://www.baeldung.com/javax-validation
+1. javax-validation-api
+2.hibernate-validator
+3.jakarta-validation
+Validate Product form with default validator annotations
+</t>
+  </si>
+  <si>
+    <t>Session 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @Valid vs @Validated
+https://www.baeldung.com/spring-valid-vs-validated
+https://www.baeldung.com/javax-validation-groups
+create custom validator for field level
+review create annotation in java from slides
+@Pattern 
+Regular Expression in java
+https://regex101.com/
+commons validator
+https://commons.apache.org/proper/commons-validator/apidocs/org/apache/commons/validator/routines/package-summary.html#package_description
+create custom validator for class level</t>
+  </si>
+  <si>
+    <t>remove boilerplate code
+Intellj Idea plugins
+create ProductCategory domain
+https://projectlombok.org/features/configuration</t>
+  </si>
+  <si>
+    <t>22/07/1400</t>
   </si>
 </sst>
 </file>
@@ -1121,10 +1174,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0700D7B-E2DB-4A90-93C9-5BD63601E41E}">
-  <dimension ref="A1:E69"/>
+  <dimension ref="A1:E74"/>
   <sheetViews>
-    <sheetView topLeftCell="A60" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+    <sheetView topLeftCell="A65" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1964,7 +2017,7 @@
         <v>82</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E59" s="4"/>
     </row>
@@ -1979,7 +2032,7 @@
         <v>172</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E60" s="4"/>
     </row>
@@ -1994,45 +2047,108 @@
         <v>83</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E61" s="4"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="4">
-        <v>8</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="E62" s="4"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="B62" s="16"/>
+      <c r="C62" s="16"/>
+      <c r="D62" s="16"/>
+      <c r="E62" s="16"/>
+    </row>
+    <row r="63" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>63</v>
       </c>
       <c r="C63" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="E63" s="4"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="B64" s="16"/>
+      <c r="C64" s="16"/>
+      <c r="D64" s="16"/>
+      <c r="E64" s="16"/>
+    </row>
+    <row r="65" spans="1:5" ht="269.39999999999998" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="4"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="E65" s="4"/>
+    </row>
+    <row r="66" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A66" s="4"/>
+      <c r="B66" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="E66" s="4"/>
+    </row>
+    <row r="67" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A67" s="4"/>
+      <c r="B67" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="E67" s="4"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="4">
+        <v>9</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C68" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D63" s="4"/>
-      <c r="E63" s="4"/>
-    </row>
-    <row r="69" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D69" t="s">
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B73" t="s">
+        <v>181</v>
+      </c>
+      <c r="C73" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D74" t="s">
         <v>157</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
+    <mergeCell ref="A64:E64"/>
+    <mergeCell ref="A62:E62"/>
     <mergeCell ref="A58:E58"/>
     <mergeCell ref="A55:E55"/>
     <mergeCell ref="A20:E20"/>
@@ -2057,10 +2173,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD86837A-08C1-4466-98F6-A3B9221015CB}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2085,6 +2201,22 @@
         <v>30</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B3">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B4">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2094,8 +2226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C0C14A6-F2E4-471F-BBA9-2EEFDE41F762}">
   <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/syllabus.xlsx
+++ b/syllabus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anisa Spring\course files\anisa-spring-course\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3500CDC3-19F8-4721-A055-3DF116E18CF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{100CBB1B-85AE-4B00-BCAF-6FEAF9C030DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" activeTab="1" xr2:uid="{964B4250-0E44-43A3-827A-148A57DAA8FC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{964B4250-0E44-43A3-827A-148A57DAA8FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="197">
   <si>
     <t>Session</t>
   </si>
@@ -299,9 +299,6 @@
   </si>
   <si>
     <t>Spring Form Validation</t>
-  </si>
-  <si>
-    <t>Whats new in Spring  5 - Spring MVC</t>
   </si>
   <si>
     <t>Spring JDBC</t>
@@ -690,10 +687,6 @@
     <t>Spring MVC using lombok</t>
   </si>
   <si>
-    <t xml:space="preserve">create ProductCategory html page
-</t>
-  </si>
-  <si>
     <t>08/07/1400</t>
   </si>
   <si>
@@ -735,6 +728,58 @@
   </si>
   <si>
     <t>22/07/1400</t>
+  </si>
+  <si>
+    <t>Session 11</t>
+  </si>
+  <si>
+    <t>some useful notes</t>
+  </si>
+  <si>
+    <t>Create Class for Mappings and Views
+redirect:</t>
+  </si>
+  <si>
+    <t>SpringBoot</t>
+  </si>
+  <si>
+    <t>review Slides</t>
+  </si>
+  <si>
+    <t>Create simple project with Spring Initializr</t>
+  </si>
+  <si>
+    <t>https://start.spring.io/
+display project structure 
+configure Spring boot to support jsp views and create simpl project</t>
+  </si>
+  <si>
+    <t xml:space="preserve">intro to thymeleaf
+configuring pom.xml to support thymeleaf
+create simple page
+dev tools dependency
+Thymeleaf Fragments and Decoupled Template Logic
+Template Preprocessing for Mappings constants (not working with thymeleaf 3.0.12+)
+https://www.thymeleaf.org/releasenotes.html#thymeleaf-3.0.12
+</t>
+  </si>
+  <si>
+    <t>Continue with Spring MVC using Thymeleaf</t>
+  </si>
+  <si>
+    <t>Session 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thymeleaf Fragments and Decoupled Template Logic - configuring beanSpringResourceTemplateResolver
+create dummy classes for controller, service and repository for user model
+populate data table by  Decoupled Template Logic technique
+add css resource using thymeleaf
+using  Decoupled Template Logic for fragments
+Spring Internationalization
+type of LocaleResolvers (https://docs.spring.io/spring-framework/docs/current/javadoc-api/org/springframework/web/servlet/LocaleResolver.html)
+file encoding in settings of ide
+Locale Change Interceptor
+</t>
   </si>
 </sst>
 </file>
@@ -1174,10 +1219,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0700D7B-E2DB-4A90-93C9-5BD63601E41E}">
-  <dimension ref="A1:E74"/>
+  <dimension ref="A1:E79"/>
   <sheetViews>
-    <sheetView topLeftCell="A65" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C65" sqref="C65"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1193,7 +1238,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>1</v>
@@ -1808,13 +1853,13 @@
         <v>5</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C44" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D44" s="10" t="s">
         <v>89</v>
-      </c>
-      <c r="D44" s="10" t="s">
-        <v>90</v>
       </c>
       <c r="E44" s="4"/>
     </row>
@@ -1823,45 +1868,45 @@
         <v>5</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E45" s="4"/>
     </row>
     <row r="46" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A46" s="4"/>
       <c r="B46" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E46" s="4"/>
     </row>
     <row r="47" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="4"/>
       <c r="B47" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C47" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D47" s="10" t="s">
         <v>94</v>
-      </c>
-      <c r="D47" s="10" t="s">
-        <v>95</v>
       </c>
       <c r="E47" s="4"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B48" s="16"/>
       <c r="C48" s="16"/>
@@ -1871,13 +1916,13 @@
     <row r="49" spans="1:5" ht="127.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4"/>
       <c r="B49" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C49" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="C49" s="4" t="s">
-        <v>153</v>
-      </c>
       <c r="D49" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E49" s="4"/>
     </row>
@@ -1889,13 +1934,13 @@
         <v>63</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -1909,7 +1954,7 @@
         <v>78</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E51" s="4"/>
     </row>
@@ -1924,7 +1969,7 @@
         <v>69</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E52" s="4"/>
     </row>
@@ -1939,7 +1984,7 @@
         <v>79</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E53" s="4"/>
     </row>
@@ -1954,13 +1999,13 @@
         <v>80</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E54" s="4"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B55" s="16"/>
       <c r="C55" s="16"/>
@@ -1975,10 +2020,10 @@
         <v>80</v>
       </c>
       <c r="C56" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="D56" s="10" t="s">
         <v>165</v>
-      </c>
-      <c r="D56" s="10" t="s">
-        <v>166</v>
       </c>
       <c r="E56" s="4"/>
     </row>
@@ -1993,13 +2038,13 @@
         <v>81</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E57" s="4"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="16" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B58" s="16"/>
       <c r="C58" s="16"/>
@@ -2017,7 +2062,7 @@
         <v>82</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E59" s="4"/>
     </row>
@@ -2029,10 +2074,10 @@
         <v>63</v>
       </c>
       <c r="C60" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D60" s="10" t="s">
         <v>172</v>
-      </c>
-      <c r="D60" s="10" t="s">
-        <v>173</v>
       </c>
       <c r="E60" s="4"/>
     </row>
@@ -2047,13 +2092,13 @@
         <v>83</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E61" s="4"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B62" s="16"/>
       <c r="C62" s="16"/>
@@ -2071,13 +2116,13 @@
         <v>84</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E63" s="4"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="16" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B64" s="16"/>
       <c r="C64" s="16"/>
@@ -2089,11 +2134,11 @@
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
       <c r="D65" s="10" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E65" s="4"/>
     </row>
-    <row r="66" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A66" s="4"/>
       <c r="B66" s="4" t="s">
         <v>63</v>
@@ -2102,60 +2147,121 @@
         <v>177</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="E66" s="4"/>
     </row>
-    <row r="67" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A67" s="4"/>
-      <c r="B67" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="D67" s="10" t="s">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="E67" s="4"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="4">
-        <v>9</v>
-      </c>
+      <c r="B67" s="16"/>
+      <c r="C67" s="16"/>
+      <c r="D67" s="16"/>
+      <c r="E67" s="16"/>
+    </row>
+    <row r="68" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A68" s="4"/>
       <c r="B68" s="4" t="s">
         <v>63</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D68" s="4"/>
+        <v>187</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>188</v>
+      </c>
       <c r="E68" s="4"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B73" t="s">
-        <v>181</v>
-      </c>
-      <c r="C73" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D74" t="s">
-        <v>157</v>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="4"/>
+      <c r="B69" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="E69" s="4"/>
+    </row>
+    <row r="70" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A70" s="4"/>
+      <c r="B70" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="D70" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="E70" s="4"/>
+    </row>
+    <row r="71" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+      <c r="A71" s="4"/>
+      <c r="B71" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="E71" s="4"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="B72" s="16"/>
+      <c r="C72" s="16"/>
+      <c r="D72" s="16"/>
+      <c r="E72" s="16"/>
+    </row>
+    <row r="73" spans="1:5" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A73" s="4">
+        <v>9</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="D73" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="E73" s="4"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B78" t="s">
+        <v>179</v>
+      </c>
+      <c r="C78" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D79" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="11">
+    <mergeCell ref="A72:E72"/>
+    <mergeCell ref="A67:E67"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A43:E43"/>
+    <mergeCell ref="A48:E48"/>
     <mergeCell ref="A64:E64"/>
     <mergeCell ref="A62:E62"/>
     <mergeCell ref="A58:E58"/>
     <mergeCell ref="A55:E55"/>
     <mergeCell ref="A20:E20"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A43:E43"/>
-    <mergeCell ref="A48:E48"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E5" r:id="rId1" xr:uid="{A4A7D2A0-BF27-44D8-8568-97857CB06FB1}"/>
@@ -2175,8 +2281,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD86837A-08C1-4466-98F6-A3B9221015CB}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2187,15 +2293,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B1" t="s">
         <v>169</v>
-      </c>
-      <c r="B1" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B2">
         <v>30</v>
@@ -2203,7 +2309,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B3">
         <v>240</v>
@@ -2211,7 +2317,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B4">
         <v>45</v>
@@ -2248,273 +2354,273 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G1" s="11" t="s">
+      <c r="H1" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="I1" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="I1" s="11" t="s">
-        <v>99</v>
-      </c>
       <c r="J1" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N1" s="2"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B2" s="13"/>
       <c r="D2" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G2" t="s">
         <v>112</v>
       </c>
-      <c r="G2" t="s">
-        <v>113</v>
-      </c>
       <c r="H2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I2" t="s">
         <v>118</v>
       </c>
-      <c r="I2" t="s">
-        <v>119</v>
-      </c>
       <c r="J2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B3" s="13"/>
       <c r="D3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B4" s="13"/>
       <c r="D4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B5" s="13"/>
       <c r="D5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B6" s="13"/>
       <c r="D6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B7" s="13"/>
       <c r="D7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B8" s="13"/>
       <c r="D8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B9" s="13"/>
       <c r="D9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B10" s="13"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B11" s="13"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="F12" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="F13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="F14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="F15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="F16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/syllabus.xlsx
+++ b/syllabus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anisa Spring\course files\anisa-spring-course\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{100CBB1B-85AE-4B00-BCAF-6FEAF9C030DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F1CB42B-C74C-4873-89E2-4B37FE048464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{964B4250-0E44-43A3-827A-148A57DAA8FC}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="199">
   <si>
     <t>Session</t>
   </si>
@@ -542,9 +542,6 @@
   <si>
     <t>spring-mvc-jdbc-jndi
 spring-mvc-jdbc-jndi2</t>
-  </si>
-  <si>
-    <t>https://spring.io/blog/2011/08/15/configuring-spring-and-jta-without-full-java-ee/</t>
   </si>
   <si>
     <r>
@@ -693,9 +690,6 @@
     <t>Spring Boot</t>
   </si>
   <si>
-    <t>produce SOAP and REST Webservices</t>
-  </si>
-  <si>
     <t xml:space="preserve">form:select items
 https://www.baeldung.com/javax-validation
 1. javax-validation-api
@@ -780,6 +774,18 @@
 file encoding in settings of ide
 Locale Change Interceptor
 </t>
+  </si>
+  <si>
+    <t>Session 13</t>
+  </si>
+  <si>
+    <t>Rest API</t>
+  </si>
+  <si>
+    <t>Create rest API for User Entity</t>
+  </si>
+  <si>
+    <t>describe anatomy of rest api, request, response, DTO and Entity</t>
   </si>
 </sst>
 </file>
@@ -1219,10 +1225,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0700D7B-E2DB-4A90-93C9-5BD63601E41E}">
-  <dimension ref="A1:E79"/>
+  <dimension ref="A1:E76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D79" sqref="A78:D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1934,10 +1940,10 @@
         <v>63</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E50" s="10" t="s">
         <v>155</v>
@@ -1954,7 +1960,7 @@
         <v>78</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E51" s="4"/>
     </row>
@@ -1969,7 +1975,7 @@
         <v>69</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E52" s="4"/>
     </row>
@@ -1984,7 +1990,7 @@
         <v>79</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E53" s="4"/>
     </row>
@@ -1999,13 +2005,13 @@
         <v>80</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E54" s="4"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B55" s="16"/>
       <c r="C55" s="16"/>
@@ -2020,10 +2026,10 @@
         <v>80</v>
       </c>
       <c r="C56" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D56" s="10" t="s">
         <v>164</v>
-      </c>
-      <c r="D56" s="10" t="s">
-        <v>165</v>
       </c>
       <c r="E56" s="4"/>
     </row>
@@ -2038,13 +2044,13 @@
         <v>81</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E57" s="4"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B58" s="16"/>
       <c r="C58" s="16"/>
@@ -2062,7 +2068,7 @@
         <v>82</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E59" s="4"/>
     </row>
@@ -2074,10 +2080,10 @@
         <v>63</v>
       </c>
       <c r="C60" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D60" s="10" t="s">
         <v>171</v>
-      </c>
-      <c r="D60" s="10" t="s">
-        <v>172</v>
       </c>
       <c r="E60" s="4"/>
     </row>
@@ -2092,13 +2098,13 @@
         <v>83</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E61" s="4"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B62" s="16"/>
       <c r="C62" s="16"/>
@@ -2116,13 +2122,13 @@
         <v>84</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E63" s="4"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="16" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B64" s="16"/>
       <c r="C64" s="16"/>
@@ -2134,7 +2140,7 @@
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
       <c r="D65" s="10" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E65" s="4"/>
     </row>
@@ -2144,16 +2150,16 @@
         <v>63</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E66" s="4"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="16" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B67" s="16"/>
       <c r="C67" s="16"/>
@@ -2166,55 +2172,55 @@
         <v>63</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E68" s="4"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="4"/>
       <c r="B69" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>88</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E69" s="4"/>
     </row>
     <row r="70" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A70" s="4"/>
       <c r="B70" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C70" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="C70" s="4" t="s">
-        <v>191</v>
-      </c>
       <c r="D70" s="10" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E70" s="4"/>
     </row>
     <row r="71" spans="1:5" ht="144" x14ac:dyDescent="0.3">
       <c r="A71" s="4"/>
       <c r="B71" s="4" t="s">
-        <v>63</v>
+        <v>187</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E71" s="4"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="16" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B72" s="16"/>
       <c r="C72" s="16"/>
@@ -2226,31 +2232,44 @@
         <v>9</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>63</v>
+        <v>178</v>
       </c>
       <c r="C73" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="D73" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="D73" s="10" t="s">
+      <c r="E73" s="4"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="B74" s="16"/>
+      <c r="C74" s="16"/>
+      <c r="D74" s="16"/>
+      <c r="E74" s="16"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B75" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C75" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="E73" s="4"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B78" t="s">
-        <v>179</v>
-      </c>
-      <c r="C78" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D79" t="s">
-        <v>156</v>
+      <c r="D75" s="10" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D76" s="10" t="s">
+        <v>198</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A74:E74"/>
     <mergeCell ref="A72:E72"/>
     <mergeCell ref="A67:E67"/>
     <mergeCell ref="A2:E2"/>
@@ -2293,15 +2312,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" t="s">
         <v>168</v>
-      </c>
-      <c r="B1" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B2">
         <v>30</v>
@@ -2309,7 +2328,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B3">
         <v>240</v>
@@ -2317,7 +2336,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B4">
         <v>45</v>

--- a/syllabus.xlsx
+++ b/syllabus.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anisa Spring\course files\anisa-spring-course\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F1CB42B-C74C-4873-89E2-4B37FE048464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C0E13D-BF49-4FE9-812B-11CE0FF92CA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{964B4250-0E44-43A3-827A-148A57DAA8FC}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="208">
   <si>
     <t>Session</t>
   </si>
@@ -786,6 +786,35 @@
   </si>
   <si>
     <t>describe anatomy of rest api, request, response, DTO and Entity</t>
+  </si>
+  <si>
+    <t>AOP</t>
+  </si>
+  <si>
+    <t>Security</t>
+  </si>
+  <si>
+    <t>Microservice</t>
+  </si>
+  <si>
+    <t>Cloud</t>
+  </si>
+  <si>
+    <t>JPA</t>
+  </si>
+  <si>
+    <t>unique entity via database and check in service layer</t>
+  </si>
+  <si>
+    <t>create finder method by named methods</t>
+  </si>
+  <si>
+    <t>Encrypt Password
+https://www.baeldung.com/spring-security-registration-password-encoding-bcrypt</t>
+  </si>
+  <si>
+    <t>add Spring Security and JWT dependency
+check in browser and use default username and password</t>
   </si>
 </sst>
 </file>
@@ -874,7 +903,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -909,6 +938,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1225,10 +1257,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0700D7B-E2DB-4A90-93C9-5BD63601E41E}">
-  <dimension ref="A1:E76"/>
+  <dimension ref="A1:E89"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A72" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D79" sqref="A78:D79"/>
+      <selection activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2263,8 +2295,63 @@
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C76" s="4" t="s">
+        <v>196</v>
+      </c>
       <c r="D76" s="10" t="s">
         <v>198</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C77" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="D77" s="10" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C78" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="D78" s="10" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C79" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D79" s="10" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C80" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D80" s="17" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B86" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B87" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B88" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B89" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>

--- a/syllabus.xlsx
+++ b/syllabus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anisa Spring\course files\anisa-spring-course\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C0E13D-BF49-4FE9-812B-11CE0FF92CA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B025A1B8-2B07-4815-82CE-471CC7702913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{964B4250-0E44-43A3-827A-148A57DAA8FC}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="218">
   <si>
     <t>Session</t>
   </si>
@@ -815,6 +815,37 @@
   <si>
     <t>add Spring Security and JWT dependency
 check in browser and use default username and password</t>
+  </si>
+  <si>
+    <t>Session 14</t>
+  </si>
+  <si>
+    <t>create Login rest api and generate JWT token</t>
+  </si>
+  <si>
+    <t xml:space="preserve">integrate Spring boot authentication with our user entity 
+</t>
+  </si>
+  <si>
+    <t>Session 15</t>
+  </si>
+  <si>
+    <t>continue with integrate Spring boot authentication with our user entity (AuthenticationFilter)</t>
+  </si>
+  <si>
+    <t>add public UserId to response header</t>
+  </si>
+  <si>
+    <t>Customize User Authentication URL "/Login"</t>
+  </si>
+  <si>
+    <t>Implement Authorization Filter</t>
+  </si>
+  <si>
+    <t>make stateless API - https://www.baeldung.com/spring-security-session</t>
+  </si>
+  <si>
+    <t>move properties to configuration file using AppProperties</t>
   </si>
 </sst>
 </file>
@@ -936,11 +967,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1257,10 +1288,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0700D7B-E2DB-4A90-93C9-5BD63601E41E}">
-  <dimension ref="A1:E89"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D83" sqref="D83"/>
+    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C94" sqref="C94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1289,13 +1320,13 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="7"/>
@@ -1557,13 +1588,13 @@
       <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
@@ -1727,13 +1758,13 @@
       <c r="E31" s="4"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="16" t="s">
+      <c r="A32" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
@@ -1878,13 +1909,13 @@
       <c r="E42" s="4"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="16" t="s">
+      <c r="A43" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="B43" s="16"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
     </row>
     <row r="44" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
@@ -1943,13 +1974,13 @@
       <c r="E47" s="4"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="16" t="s">
+      <c r="A48" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="B48" s="16"/>
-      <c r="C48" s="16"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="16"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
     </row>
     <row r="49" spans="1:5" ht="127.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4"/>
@@ -2042,13 +2073,13 @@
       <c r="E54" s="4"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="16" t="s">
+      <c r="A55" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="B55" s="16"/>
-      <c r="C55" s="16"/>
-      <c r="D55" s="16"/>
-      <c r="E55" s="16"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="17"/>
     </row>
     <row r="56" spans="1:5" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
@@ -2081,13 +2112,13 @@
       <c r="E57" s="4"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="16" t="s">
+      <c r="A58" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="B58" s="16"/>
-      <c r="C58" s="16"/>
-      <c r="D58" s="16"/>
-      <c r="E58" s="16"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="17"/>
     </row>
     <row r="59" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
@@ -2135,13 +2166,13 @@
       <c r="E61" s="4"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="16" t="s">
+      <c r="A62" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="B62" s="16"/>
-      <c r="C62" s="16"/>
-      <c r="D62" s="16"/>
-      <c r="E62" s="16"/>
+      <c r="B62" s="17"/>
+      <c r="C62" s="17"/>
+      <c r="D62" s="17"/>
+      <c r="E62" s="17"/>
     </row>
     <row r="63" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
@@ -2159,13 +2190,13 @@
       <c r="E63" s="4"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="16" t="s">
+      <c r="A64" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="B64" s="16"/>
-      <c r="C64" s="16"/>
-      <c r="D64" s="16"/>
-      <c r="E64" s="16"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="17"/>
+      <c r="D64" s="17"/>
+      <c r="E64" s="17"/>
     </row>
     <row r="65" spans="1:5" ht="269.39999999999998" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4"/>
@@ -2190,13 +2221,13 @@
       <c r="E66" s="4"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="16" t="s">
+      <c r="A67" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="B67" s="16"/>
-      <c r="C67" s="16"/>
-      <c r="D67" s="16"/>
-      <c r="E67" s="16"/>
+      <c r="B67" s="17"/>
+      <c r="C67" s="17"/>
+      <c r="D67" s="17"/>
+      <c r="E67" s="17"/>
     </row>
     <row r="68" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A68" s="4"/>
@@ -2251,13 +2282,13 @@
       <c r="E71" s="4"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="16" t="s">
+      <c r="A72" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="B72" s="16"/>
-      <c r="C72" s="16"/>
-      <c r="D72" s="16"/>
-      <c r="E72" s="16"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="17"/>
+      <c r="D72" s="17"/>
+      <c r="E72" s="17"/>
     </row>
     <row r="73" spans="1:5" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A73" s="4">
@@ -2275,13 +2306,13 @@
       <c r="E73" s="4"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="16" t="s">
+      <c r="A74" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="B74" s="16"/>
-      <c r="C74" s="16"/>
-      <c r="D74" s="16"/>
-      <c r="E74" s="16"/>
+      <c r="B74" s="17"/>
+      <c r="C74" s="17"/>
+      <c r="D74" s="17"/>
+      <c r="E74" s="17"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B75" s="4" t="s">
@@ -2303,62 +2334,117 @@
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C77" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="D77" s="10" t="s">
-        <v>204</v>
-      </c>
+      <c r="A77" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="B77" s="17"/>
+      <c r="C77" s="17"/>
+      <c r="D77" s="17"/>
+      <c r="E77" s="17"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C78" s="4" t="s">
         <v>203</v>
       </c>
       <c r="D78" s="10" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C79" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="D79" s="10" t="s">
         <v>205</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C79" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="D79" s="10" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C80" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="D80" s="17" t="s">
+      <c r="D80" s="10" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C81" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D81" s="16" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B86" t="s">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D82" s="10" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="B84" s="17"/>
+      <c r="C84" s="17"/>
+      <c r="D84" s="17"/>
+      <c r="E84" s="17"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D85" s="10" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D86" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D87" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D88" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D89" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D90" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D91" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B98" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B87" t="s">
+    <row r="99" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B99" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B88" t="s">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B100" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B89" t="s">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B101" t="s">
         <v>202</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A74:E74"/>
-    <mergeCell ref="A72:E72"/>
-    <mergeCell ref="A67:E67"/>
+  <mergeCells count="14">
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A32:E32"/>
     <mergeCell ref="A43:E43"/>
@@ -2368,6 +2454,11 @@
     <mergeCell ref="A58:E58"/>
     <mergeCell ref="A55:E55"/>
     <mergeCell ref="A20:E20"/>
+    <mergeCell ref="A77:E77"/>
+    <mergeCell ref="A84:E84"/>
+    <mergeCell ref="A74:E74"/>
+    <mergeCell ref="A72:E72"/>
+    <mergeCell ref="A67:E67"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E5" r:id="rId1" xr:uid="{A4A7D2A0-BF27-44D8-8568-97857CB06FB1}"/>

--- a/syllabus.xlsx
+++ b/syllabus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anisa Spring\course files\anisa-spring-course\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B025A1B8-2B07-4815-82CE-471CC7702913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F16AE8F-5E2D-48EB-9E66-43FA91A48C5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{964B4250-0E44-43A3-827A-148A57DAA8FC}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="233">
   <si>
     <t>Session</t>
   </si>
@@ -846,6 +846,51 @@
   </si>
   <si>
     <t>move properties to configuration file using AppProperties</t>
+  </si>
+  <si>
+    <t>Session 16</t>
+  </si>
+  <si>
+    <t>Support XML and JSON for Request and Response with accept header</t>
+  </si>
+  <si>
+    <t>Update User</t>
+  </si>
+  <si>
+    <t>Session 17</t>
+  </si>
+  <si>
+    <t>Make Custom Exception and CustomErrors</t>
+  </si>
+  <si>
+    <t>Write ControllerAdvice for handle errors</t>
+  </si>
+  <si>
+    <t>Results Pagination for getAll using PagingAndSortingRepository</t>
+  </si>
+  <si>
+    <t xml:space="preserve">create contextpath and Build jar file and </t>
+  </si>
+  <si>
+    <t>Create war file - SpringBootServletInitializer, tomcat as provider</t>
+  </si>
+  <si>
+    <t>make tomcat server</t>
+  </si>
+  <si>
+    <t>SOAP</t>
+  </si>
+  <si>
+    <t>Rest Client</t>
+  </si>
+  <si>
+    <t>RestClient</t>
+  </si>
+  <si>
+    <t>SOAP Server And Client</t>
+  </si>
+  <si>
+    <t>Session 18</t>
   </si>
 </sst>
 </file>
@@ -892,7 +937,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -908,6 +953,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -934,7 +985,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -973,6 +1024,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1288,10 +1340,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0700D7B-E2DB-4A90-93C9-5BD63601E41E}">
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:E111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C94" sqref="C94"/>
+    <sheetView tabSelected="1" topLeftCell="A84" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A103" sqref="A103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2423,28 +2475,118 @@
         <v>217</v>
       </c>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B98" t="s">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="B92" s="17"/>
+      <c r="C92" s="17"/>
+      <c r="D92" s="17"/>
+      <c r="E92" s="17"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D93" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D94" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="B95" s="17"/>
+      <c r="C95" s="17"/>
+      <c r="D95" s="17"/>
+      <c r="E95" s="17"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D96" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D97" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D98" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D99" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D100" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D101" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="B102" s="17"/>
+      <c r="C102" s="17"/>
+      <c r="D102" s="17"/>
+      <c r="E102" s="17"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D103" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D104" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B105" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B99" t="s">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B106" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B100" t="s">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B107" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B101" t="s">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B108" t="s">
         <v>202</v>
       </c>
     </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B110" s="18" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B111" t="s">
+        <v>229</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="17">
+    <mergeCell ref="A102:E102"/>
+    <mergeCell ref="A72:E72"/>
+    <mergeCell ref="A67:E67"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A32:E32"/>
     <mergeCell ref="A43:E43"/>
@@ -2454,11 +2596,11 @@
     <mergeCell ref="A58:E58"/>
     <mergeCell ref="A55:E55"/>
     <mergeCell ref="A20:E20"/>
+    <mergeCell ref="A92:E92"/>
+    <mergeCell ref="A95:E95"/>
     <mergeCell ref="A77:E77"/>
     <mergeCell ref="A84:E84"/>
     <mergeCell ref="A74:E74"/>
-    <mergeCell ref="A72:E72"/>
-    <mergeCell ref="A67:E67"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E5" r:id="rId1" xr:uid="{A4A7D2A0-BF27-44D8-8568-97857CB06FB1}"/>

--- a/syllabus.xlsx
+++ b/syllabus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anisa Spring\course files\anisa-spring-course\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F16AE8F-5E2D-48EB-9E66-43FA91A48C5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5CC9A6B-B532-49E1-B78E-96A49C07247A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{964B4250-0E44-43A3-827A-148A57DAA8FC}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="235">
   <si>
     <t>Session</t>
   </si>
@@ -884,13 +884,22 @@
     <t>Rest Client</t>
   </si>
   <si>
-    <t>RestClient</t>
-  </si>
-  <si>
     <t>SOAP Server And Client</t>
   </si>
   <si>
     <t>Session 18</t>
+  </si>
+  <si>
+    <t>Ajax city, Province</t>
+  </si>
+  <si>
+    <t>https://www.developer.com/design/enterprise-java-contract-first-vs-contract-last-web-services/#:~:text=In%20the%20contract%2Dfirst%20web,created%20at%20the%20very%20end.
+https://github.com/highsource/maven-jaxb2-plugin
+WSDL 1: http://localhost:8080/example/ws/wsdl/helloworld.wsdl
+WSDL 2: http://localhost:8080/ws/countries.wsdl</t>
+  </si>
+  <si>
+    <t>Ajax</t>
   </si>
 </sst>
 </file>
@@ -1021,10 +1030,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1340,10 +1349,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0700D7B-E2DB-4A90-93C9-5BD63601E41E}">
-  <dimension ref="A1:E111"/>
+  <dimension ref="A1:E113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A103" sqref="A103"/>
+    <sheetView tabSelected="1" topLeftCell="A90" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D105" sqref="D105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1372,13 +1381,13 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="7"/>
@@ -1640,13 +1649,13 @@
       <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
@@ -1810,13 +1819,13 @@
       <c r="E31" s="4"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="17" t="s">
+      <c r="A32" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
@@ -1961,13 +1970,13 @@
       <c r="E42" s="4"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="17" t="s">
+      <c r="A43" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
     </row>
     <row r="44" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
@@ -2026,13 +2035,13 @@
       <c r="E47" s="4"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="17" t="s">
+      <c r="A48" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="B48" s="17"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="17"/>
+      <c r="B48" s="18"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="18"/>
+      <c r="E48" s="18"/>
     </row>
     <row r="49" spans="1:5" ht="127.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4"/>
@@ -2125,13 +2134,13 @@
       <c r="E54" s="4"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="17" t="s">
+      <c r="A55" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="B55" s="17"/>
-      <c r="C55" s="17"/>
-      <c r="D55" s="17"/>
-      <c r="E55" s="17"/>
+      <c r="B55" s="18"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="18"/>
+      <c r="E55" s="18"/>
     </row>
     <row r="56" spans="1:5" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
@@ -2164,13 +2173,13 @@
       <c r="E57" s="4"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="17" t="s">
+      <c r="A58" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="B58" s="17"/>
-      <c r="C58" s="17"/>
-      <c r="D58" s="17"/>
-      <c r="E58" s="17"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="18"/>
+      <c r="E58" s="18"/>
     </row>
     <row r="59" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
@@ -2218,13 +2227,13 @@
       <c r="E61" s="4"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="17" t="s">
+      <c r="A62" s="18" t="s">
         <v>174</v>
       </c>
-      <c r="B62" s="17"/>
-      <c r="C62" s="17"/>
-      <c r="D62" s="17"/>
-      <c r="E62" s="17"/>
+      <c r="B62" s="18"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="18"/>
+      <c r="E62" s="18"/>
     </row>
     <row r="63" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
@@ -2242,13 +2251,13 @@
       <c r="E63" s="4"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="17" t="s">
+      <c r="A64" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="B64" s="17"/>
-      <c r="C64" s="17"/>
-      <c r="D64" s="17"/>
-      <c r="E64" s="17"/>
+      <c r="B64" s="18"/>
+      <c r="C64" s="18"/>
+      <c r="D64" s="18"/>
+      <c r="E64" s="18"/>
     </row>
     <row r="65" spans="1:5" ht="269.39999999999998" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4"/>
@@ -2273,13 +2282,13 @@
       <c r="E66" s="4"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="17" t="s">
+      <c r="A67" s="18" t="s">
         <v>184</v>
       </c>
-      <c r="B67" s="17"/>
-      <c r="C67" s="17"/>
-      <c r="D67" s="17"/>
-      <c r="E67" s="17"/>
+      <c r="B67" s="18"/>
+      <c r="C67" s="18"/>
+      <c r="D67" s="18"/>
+      <c r="E67" s="18"/>
     </row>
     <row r="68" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A68" s="4"/>
@@ -2334,13 +2343,13 @@
       <c r="E71" s="4"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="17" t="s">
+      <c r="A72" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="B72" s="17"/>
-      <c r="C72" s="17"/>
-      <c r="D72" s="17"/>
-      <c r="E72" s="17"/>
+      <c r="B72" s="18"/>
+      <c r="C72" s="18"/>
+      <c r="D72" s="18"/>
+      <c r="E72" s="18"/>
     </row>
     <row r="73" spans="1:5" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A73" s="4">
@@ -2358,13 +2367,13 @@
       <c r="E73" s="4"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="17" t="s">
+      <c r="A74" s="18" t="s">
         <v>195</v>
       </c>
-      <c r="B74" s="17"/>
-      <c r="C74" s="17"/>
-      <c r="D74" s="17"/>
-      <c r="E74" s="17"/>
+      <c r="B74" s="18"/>
+      <c r="C74" s="18"/>
+      <c r="D74" s="18"/>
+      <c r="E74" s="18"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B75" s="4" t="s">
@@ -2386,13 +2395,13 @@
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="17" t="s">
+      <c r="A77" s="18" t="s">
         <v>208</v>
       </c>
-      <c r="B77" s="17"/>
-      <c r="C77" s="17"/>
-      <c r="D77" s="17"/>
-      <c r="E77" s="17"/>
+      <c r="B77" s="18"/>
+      <c r="C77" s="18"/>
+      <c r="D77" s="18"/>
+      <c r="E77" s="18"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C78" s="4" t="s">
@@ -2432,13 +2441,13 @@
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="17" t="s">
+      <c r="A84" s="18" t="s">
         <v>211</v>
       </c>
-      <c r="B84" s="17"/>
-      <c r="C84" s="17"/>
-      <c r="D84" s="17"/>
-      <c r="E84" s="17"/>
+      <c r="B84" s="18"/>
+      <c r="C84" s="18"/>
+      <c r="D84" s="18"/>
+      <c r="E84" s="18"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D85" s="10" t="s">
@@ -2476,13 +2485,13 @@
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A92" s="17" t="s">
+      <c r="A92" s="18" t="s">
         <v>218</v>
       </c>
-      <c r="B92" s="17"/>
-      <c r="C92" s="17"/>
-      <c r="D92" s="17"/>
-      <c r="E92" s="17"/>
+      <c r="B92" s="18"/>
+      <c r="C92" s="18"/>
+      <c r="D92" s="18"/>
+      <c r="E92" s="18"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D93" t="s">
@@ -2495,13 +2504,13 @@
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A95" s="17" t="s">
+      <c r="A95" s="18" t="s">
         <v>221</v>
       </c>
-      <c r="B95" s="17"/>
-      <c r="C95" s="17"/>
-      <c r="D95" s="17"/>
-      <c r="E95" s="17"/>
+      <c r="B95" s="18"/>
+      <c r="C95" s="18"/>
+      <c r="D95" s="18"/>
+      <c r="E95" s="18"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D96" t="s">
@@ -2534,22 +2543,25 @@
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A102" s="17" t="s">
-        <v>232</v>
-      </c>
-      <c r="B102" s="17"/>
-      <c r="C102" s="17"/>
-      <c r="D102" s="17"/>
-      <c r="E102" s="17"/>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D103" t="s">
-        <v>230</v>
+      <c r="A102" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="B102" s="18"/>
+      <c r="C102" s="18"/>
+      <c r="D102" s="18"/>
+      <c r="E102" s="18"/>
+    </row>
+    <row r="103" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="C103" t="s">
+        <v>228</v>
+      </c>
+      <c r="D103" s="16" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D104" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
@@ -2573,7 +2585,7 @@
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B110" s="18" t="s">
+      <c r="B110" s="17" t="s">
         <v>228</v>
       </c>
     </row>
@@ -2582,11 +2594,26 @@
         <v>229</v>
       </c>
     </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B112" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B113" t="s">
+        <v>232</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A84:E84"/>
+    <mergeCell ref="A74:E74"/>
     <mergeCell ref="A102:E102"/>
     <mergeCell ref="A72:E72"/>
     <mergeCell ref="A67:E67"/>
+    <mergeCell ref="A92:E92"/>
+    <mergeCell ref="A95:E95"/>
+    <mergeCell ref="A77:E77"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A32:E32"/>
     <mergeCell ref="A43:E43"/>
@@ -2596,11 +2623,6 @@
     <mergeCell ref="A58:E58"/>
     <mergeCell ref="A55:E55"/>
     <mergeCell ref="A20:E20"/>
-    <mergeCell ref="A92:E92"/>
-    <mergeCell ref="A95:E95"/>
-    <mergeCell ref="A77:E77"/>
-    <mergeCell ref="A84:E84"/>
-    <mergeCell ref="A74:E74"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E5" r:id="rId1" xr:uid="{A4A7D2A0-BF27-44D8-8568-97857CB06FB1}"/>

--- a/syllabus.xlsx
+++ b/syllabus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anisa Spring\course files\anisa-spring-course\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5CC9A6B-B532-49E1-B78E-96A49C07247A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86904E18-B16D-4C5E-B8D2-72FB7FF5A5E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{964B4250-0E44-43A3-827A-148A57DAA8FC}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="238">
   <si>
     <t>Session</t>
   </si>
@@ -881,16 +881,7 @@
     <t>SOAP</t>
   </si>
   <si>
-    <t>Rest Client</t>
-  </si>
-  <si>
-    <t>SOAP Server And Client</t>
-  </si>
-  <si>
     <t>Session 18</t>
-  </si>
-  <si>
-    <t>Ajax city, Province</t>
   </si>
   <si>
     <t>https://www.developer.com/design/enterprise-java-contract-first-vs-contract-last-web-services/#:~:text=In%20the%20contract%2Dfirst%20web,created%20at%20the%20very%20end.
@@ -900,6 +891,24 @@
   </si>
   <si>
     <t>Ajax</t>
+  </si>
+  <si>
+    <t>Session 21</t>
+  </si>
+  <si>
+    <t>Reactive</t>
+  </si>
+  <si>
+    <t>Kafka MQ</t>
+  </si>
+  <si>
+    <t>Role Based Access Control</t>
+  </si>
+  <si>
+    <t>Security - Permission Management on the WEB</t>
+  </si>
+  <si>
+    <t>Spring Batch</t>
   </si>
 </sst>
 </file>
@@ -946,7 +955,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -962,12 +971,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -994,7 +997,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1030,7 +1033,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1349,15 +1351,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0700D7B-E2DB-4A90-93C9-5BD63601E41E}">
-  <dimension ref="A1:E113"/>
+  <dimension ref="A1:E112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D105" sqref="D105"/>
+    <sheetView tabSelected="1" topLeftCell="A96" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B112" sqref="B112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="30.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="76.109375" customWidth="1"/>
     <col min="4" max="4" width="81.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="58.88671875" bestFit="1" customWidth="1"/>
@@ -1381,13 +1383,13 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="7"/>
@@ -1649,13 +1651,13 @@
       <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
@@ -1819,13 +1821,13 @@
       <c r="E31" s="4"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="18" t="s">
+      <c r="A32" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
@@ -1970,13 +1972,13 @@
       <c r="E42" s="4"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="18" t="s">
+      <c r="A43" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="B43" s="18"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
     </row>
     <row r="44" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
@@ -2035,13 +2037,13 @@
       <c r="E47" s="4"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="18" t="s">
+      <c r="A48" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="B48" s="18"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="18"/>
-      <c r="E48" s="18"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
     </row>
     <row r="49" spans="1:5" ht="127.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4"/>
@@ -2134,13 +2136,13 @@
       <c r="E54" s="4"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="18" t="s">
+      <c r="A55" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="B55" s="18"/>
-      <c r="C55" s="18"/>
-      <c r="D55" s="18"/>
-      <c r="E55" s="18"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="17"/>
     </row>
     <row r="56" spans="1:5" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
@@ -2173,13 +2175,13 @@
       <c r="E57" s="4"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="18" t="s">
+      <c r="A58" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="B58" s="18"/>
-      <c r="C58" s="18"/>
-      <c r="D58" s="18"/>
-      <c r="E58" s="18"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="17"/>
     </row>
     <row r="59" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
@@ -2227,13 +2229,13 @@
       <c r="E61" s="4"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="18" t="s">
+      <c r="A62" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="B62" s="18"/>
-      <c r="C62" s="18"/>
-      <c r="D62" s="18"/>
-      <c r="E62" s="18"/>
+      <c r="B62" s="17"/>
+      <c r="C62" s="17"/>
+      <c r="D62" s="17"/>
+      <c r="E62" s="17"/>
     </row>
     <row r="63" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
@@ -2251,13 +2253,13 @@
       <c r="E63" s="4"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="18" t="s">
+      <c r="A64" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="B64" s="18"/>
-      <c r="C64" s="18"/>
-      <c r="D64" s="18"/>
-      <c r="E64" s="18"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="17"/>
+      <c r="D64" s="17"/>
+      <c r="E64" s="17"/>
     </row>
     <row r="65" spans="1:5" ht="269.39999999999998" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4"/>
@@ -2282,13 +2284,13 @@
       <c r="E66" s="4"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="18" t="s">
+      <c r="A67" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="B67" s="18"/>
-      <c r="C67" s="18"/>
-      <c r="D67" s="18"/>
-      <c r="E67" s="18"/>
+      <c r="B67" s="17"/>
+      <c r="C67" s="17"/>
+      <c r="D67" s="17"/>
+      <c r="E67" s="17"/>
     </row>
     <row r="68" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A68" s="4"/>
@@ -2343,13 +2345,13 @@
       <c r="E71" s="4"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="18" t="s">
+      <c r="A72" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="B72" s="18"/>
-      <c r="C72" s="18"/>
-      <c r="D72" s="18"/>
-      <c r="E72" s="18"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="17"/>
+      <c r="D72" s="17"/>
+      <c r="E72" s="17"/>
     </row>
     <row r="73" spans="1:5" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A73" s="4">
@@ -2367,13 +2369,13 @@
       <c r="E73" s="4"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="18" t="s">
+      <c r="A74" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="B74" s="18"/>
-      <c r="C74" s="18"/>
-      <c r="D74" s="18"/>
-      <c r="E74" s="18"/>
+      <c r="B74" s="17"/>
+      <c r="C74" s="17"/>
+      <c r="D74" s="17"/>
+      <c r="E74" s="17"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B75" s="4" t="s">
@@ -2395,13 +2397,13 @@
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="18" t="s">
+      <c r="A77" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="B77" s="18"/>
-      <c r="C77" s="18"/>
-      <c r="D77" s="18"/>
-      <c r="E77" s="18"/>
+      <c r="B77" s="17"/>
+      <c r="C77" s="17"/>
+      <c r="D77" s="17"/>
+      <c r="E77" s="17"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C78" s="4" t="s">
@@ -2441,13 +2443,13 @@
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="18" t="s">
+      <c r="A84" s="17" t="s">
         <v>211</v>
       </c>
-      <c r="B84" s="18"/>
-      <c r="C84" s="18"/>
-      <c r="D84" s="18"/>
-      <c r="E84" s="18"/>
+      <c r="B84" s="17"/>
+      <c r="C84" s="17"/>
+      <c r="D84" s="17"/>
+      <c r="E84" s="17"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D85" s="10" t="s">
@@ -2485,13 +2487,13 @@
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A92" s="18" t="s">
+      <c r="A92" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="B92" s="18"/>
-      <c r="C92" s="18"/>
-      <c r="D92" s="18"/>
-      <c r="E92" s="18"/>
+      <c r="B92" s="17"/>
+      <c r="C92" s="17"/>
+      <c r="D92" s="17"/>
+      <c r="E92" s="17"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D93" t="s">
@@ -2504,13 +2506,13 @@
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A95" s="18" t="s">
+      <c r="A95" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="B95" s="18"/>
-      <c r="C95" s="18"/>
-      <c r="D95" s="18"/>
-      <c r="E95" s="18"/>
+      <c r="B95" s="17"/>
+      <c r="C95" s="17"/>
+      <c r="D95" s="17"/>
+      <c r="E95" s="17"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D96" t="s">
@@ -2543,77 +2545,80 @@
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A102" s="18" t="s">
-        <v>231</v>
-      </c>
-      <c r="B102" s="18"/>
-      <c r="C102" s="18"/>
-      <c r="D102" s="18"/>
-      <c r="E102" s="18"/>
+      <c r="A102" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="B102" s="17"/>
+      <c r="C102" s="17"/>
+      <c r="D102" s="17"/>
+      <c r="E102" s="17"/>
     </row>
     <row r="103" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="C103" t="s">
         <v>228</v>
       </c>
       <c r="D103" s="16" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D104" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B105" t="s">
-        <v>199</v>
-      </c>
+      <c r="A105" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="B105" s="17"/>
+      <c r="C105" s="17"/>
+      <c r="D105" s="17"/>
+      <c r="E105" s="17"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B106" t="s">
+        <v>199</v>
+      </c>
+      <c r="C106" t="s">
         <v>200</v>
+      </c>
+      <c r="D106" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B107" t="s">
-        <v>201</v>
+        <v>236</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B108" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B109" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B110" s="17" t="s">
-        <v>228</v>
+      <c r="B110" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B111" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B112" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B113" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="A84:E84"/>
-    <mergeCell ref="A74:E74"/>
-    <mergeCell ref="A102:E102"/>
-    <mergeCell ref="A72:E72"/>
-    <mergeCell ref="A67:E67"/>
-    <mergeCell ref="A92:E92"/>
-    <mergeCell ref="A95:E95"/>
-    <mergeCell ref="A77:E77"/>
+  <mergeCells count="18">
+    <mergeCell ref="A105:E105"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A32:E32"/>
     <mergeCell ref="A43:E43"/>
@@ -2623,6 +2628,14 @@
     <mergeCell ref="A58:E58"/>
     <mergeCell ref="A55:E55"/>
     <mergeCell ref="A20:E20"/>
+    <mergeCell ref="A84:E84"/>
+    <mergeCell ref="A74:E74"/>
+    <mergeCell ref="A102:E102"/>
+    <mergeCell ref="A72:E72"/>
+    <mergeCell ref="A67:E67"/>
+    <mergeCell ref="A92:E92"/>
+    <mergeCell ref="A95:E95"/>
+    <mergeCell ref="A77:E77"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E5" r:id="rId1" xr:uid="{A4A7D2A0-BF27-44D8-8568-97857CB06FB1}"/>

--- a/syllabus.xlsx
+++ b/syllabus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anisa Spring\course files\anisa-spring-course\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86904E18-B16D-4C5E-B8D2-72FB7FF5A5E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF2BA726-5651-4957-A2D5-C96761ACB5FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{964B4250-0E44-43A3-827A-148A57DAA8FC}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="244">
   <si>
     <t>Session</t>
   </si>
@@ -794,9 +794,6 @@
     <t>Security</t>
   </si>
   <si>
-    <t>Microservice</t>
-  </si>
-  <si>
     <t>Cloud</t>
   </si>
   <si>
@@ -909,6 +906,27 @@
   </si>
   <si>
     <t>Spring Batch</t>
+  </si>
+  <si>
+    <t>Spring Security ACL</t>
+  </si>
+  <si>
+    <t>https://github.com/spring-projects/spring-security/blob/main/acl/src/main/java/org/springframework/security/acls/domain/BasePermission.java</t>
+  </si>
+  <si>
+    <t>https://www.baeldung.com/spring-security-acl</t>
+  </si>
+  <si>
+    <t>Microservice, docker, kubernetes</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=GTln3jc5_eg</t>
+  </si>
+  <si>
+    <t>Session 24</t>
+  </si>
+  <si>
+    <t>Session 25</t>
   </si>
 </sst>
 </file>
@@ -1351,10 +1369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0700D7B-E2DB-4A90-93C9-5BD63601E41E}">
-  <dimension ref="A1:E112"/>
+  <dimension ref="A1:E124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B112" sqref="B112"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D113" sqref="D113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2398,7 +2416,7 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="17" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B77" s="17"/>
       <c r="C77" s="17"/>
@@ -2407,18 +2425,18 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C78" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D78" s="10" t="s">
         <v>203</v>
-      </c>
-      <c r="D78" s="10" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C79" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -2426,7 +2444,7 @@
         <v>200</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -2434,17 +2452,17 @@
         <v>200</v>
       </c>
       <c r="D81" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D82" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="17" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B84" s="17"/>
       <c r="C84" s="17"/>
@@ -2453,42 +2471,42 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D85" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D86" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D87" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D88" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D89" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D90" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D91" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="17" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B92" s="17"/>
       <c r="C92" s="17"/>
@@ -2497,17 +2515,17 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D93" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D94" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="17" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B95" s="17"/>
       <c r="C95" s="17"/>
@@ -2516,37 +2534,37 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D96" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D97" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D98" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D99" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D100" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D101" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="17" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B102" s="17"/>
       <c r="C102" s="17"/>
@@ -2555,20 +2573,20 @@
     </row>
     <row r="103" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="C103" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D103" s="16" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D104" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="17" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B105" s="17"/>
       <c r="C105" s="17"/>
@@ -2576,48 +2594,92 @@
       <c r="E105" s="17"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B106" t="s">
-        <v>199</v>
-      </c>
       <c r="C106" t="s">
         <v>200</v>
       </c>
       <c r="D106" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="B107" s="17"/>
+      <c r="C107" s="17"/>
+      <c r="D107" s="17"/>
+      <c r="E107" s="17"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D108" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D109" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D110" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D111" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="B112" s="17"/>
+      <c r="C112" s="17"/>
+      <c r="D112" s="17"/>
+      <c r="E112" s="17"/>
+    </row>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B118" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B119" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B107" t="s">
+    <row r="120" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B120" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B121" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B122" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B123" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B124" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B108" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B109" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B110" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B111" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B112" t="s">
-        <v>237</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="20">
+    <mergeCell ref="A95:E95"/>
+    <mergeCell ref="A77:E77"/>
+    <mergeCell ref="A107:E107"/>
+    <mergeCell ref="A112:E112"/>
     <mergeCell ref="A105:E105"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A32:E32"/>
@@ -2634,8 +2696,6 @@
     <mergeCell ref="A72:E72"/>
     <mergeCell ref="A67:E67"/>
     <mergeCell ref="A92:E92"/>
-    <mergeCell ref="A95:E95"/>
-    <mergeCell ref="A77:E77"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E5" r:id="rId1" xr:uid="{A4A7D2A0-BF27-44D8-8568-97857CB06FB1}"/>

--- a/syllabus.xlsx
+++ b/syllabus.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anisa Spring\course files\anisa-spring-course\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF2BA726-5651-4957-A2D5-C96761ACB5FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{740107F7-8E69-401F-ADFB-6B3E9817EA2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{964B4250-0E44-43A3-827A-148A57DAA8FC}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="254">
   <si>
     <t>Session</t>
   </si>
@@ -927,6 +927,37 @@
   </si>
   <si>
     <t>Session 25</t>
+  </si>
+  <si>
+    <t>Rest Assured</t>
+  </si>
+  <si>
+    <t>Cucumber</t>
+  </si>
+  <si>
+    <t>gherkin</t>
+  </si>
+  <si>
+    <t>https://www.baeldung.com/junit-5-repeated-test</t>
+  </si>
+  <si>
+    <t>Session 26</t>
+  </si>
+  <si>
+    <t>https://www.baeldung.com/spring-boot-h2-database</t>
+  </si>
+  <si>
+    <t>jUnit repeat test</t>
+  </si>
+  <si>
+    <t>H2 Database in memory</t>
+  </si>
+  <si>
+    <t>https://rest-assured.io/
+https://maven.apache.org/surefire/maven-surefire-plugin/</t>
+  </si>
+  <si>
+    <t>Junit 5 and Mockito</t>
   </si>
 </sst>
 </file>
@@ -1369,10 +1400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0700D7B-E2DB-4A90-93C9-5BD63601E41E}">
-  <dimension ref="A1:E124"/>
+  <dimension ref="A1:E127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D113" sqref="D113"/>
+    <sheetView tabSelected="1" topLeftCell="A104" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A114" sqref="A114:E114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2639,48 +2670,91 @@
       <c r="D112" s="17"/>
       <c r="E112" s="17"/>
     </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B118" t="s">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D113" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="B114" s="17"/>
+      <c r="C114" s="17"/>
+      <c r="D114" s="17"/>
+      <c r="E114" s="17"/>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C115" t="s">
+        <v>250</v>
+      </c>
+      <c r="D115" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C116" t="s">
+        <v>251</v>
+      </c>
+      <c r="D116" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C117" t="s">
+        <v>244</v>
+      </c>
+      <c r="D117" s="16" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D118" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D119" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B121" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B119" t="s">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B122" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B120" t="s">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B123" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B121" t="s">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B124" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B122" t="s">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B125" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B123" t="s">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B126" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B124" t="s">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B127" t="s">
         <v>236</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="A95:E95"/>
-    <mergeCell ref="A77:E77"/>
-    <mergeCell ref="A107:E107"/>
-    <mergeCell ref="A112:E112"/>
-    <mergeCell ref="A105:E105"/>
+  <mergeCells count="21">
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A32:E32"/>
     <mergeCell ref="A43:E43"/>
@@ -2690,12 +2764,18 @@
     <mergeCell ref="A58:E58"/>
     <mergeCell ref="A55:E55"/>
     <mergeCell ref="A20:E20"/>
-    <mergeCell ref="A84:E84"/>
+    <mergeCell ref="A114:E114"/>
     <mergeCell ref="A74:E74"/>
     <mergeCell ref="A102:E102"/>
     <mergeCell ref="A72:E72"/>
     <mergeCell ref="A67:E67"/>
     <mergeCell ref="A92:E92"/>
+    <mergeCell ref="A95:E95"/>
+    <mergeCell ref="A77:E77"/>
+    <mergeCell ref="A107:E107"/>
+    <mergeCell ref="A112:E112"/>
+    <mergeCell ref="A105:E105"/>
+    <mergeCell ref="A84:E84"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E5" r:id="rId1" xr:uid="{A4A7D2A0-BF27-44D8-8568-97857CB06FB1}"/>

--- a/syllabus.xlsx
+++ b/syllabus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anisa Spring\course files\anisa-spring-course\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{740107F7-8E69-401F-ADFB-6B3E9817EA2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4BDCAAD-9CB3-45AE-B54E-3AC920E777B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{964B4250-0E44-43A3-827A-148A57DAA8FC}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="258">
   <si>
     <t>Session</t>
   </si>
@@ -958,6 +958,18 @@
   </si>
   <si>
     <t>Junit 5 and Mockito</t>
+  </si>
+  <si>
+    <t>Session 27</t>
+  </si>
+  <si>
+    <t>docker</t>
+  </si>
+  <si>
+    <t>Session 28</t>
+  </si>
+  <si>
+    <t>build spring boot project and pull docker image to docker hub using  gitlab ci in gitlab-ci.yml</t>
   </si>
 </sst>
 </file>
@@ -1400,10 +1412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0700D7B-E2DB-4A90-93C9-5BD63601E41E}">
-  <dimension ref="A1:E127"/>
+  <dimension ref="A1:E149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A114" sqref="A114:E114"/>
+    <sheetView tabSelected="1" topLeftCell="B118" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D124" sqref="D124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2718,52 +2730,73 @@
         <v>246</v>
       </c>
     </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A120" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="B120" s="17"/>
+      <c r="C120" s="17"/>
+      <c r="D120" s="17"/>
+      <c r="E120" s="17"/>
+    </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B121" t="s">
+      <c r="D121" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A122" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="B122" s="17"/>
+      <c r="C122" s="17"/>
+      <c r="D122" s="17"/>
+      <c r="E122" s="17"/>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D123" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="143" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B143" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B122" t="s">
+    <row r="144" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B144" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B123" t="s">
+    <row r="145" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B145" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B124" t="s">
+    <row r="146" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B146" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B125" t="s">
+    <row r="147" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B147" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B126" t="s">
+    <row r="148" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B148" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B127" t="s">
+    <row r="149" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B149" t="s">
         <v>236</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A43:E43"/>
-    <mergeCell ref="A48:E48"/>
-    <mergeCell ref="A64:E64"/>
-    <mergeCell ref="A62:E62"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="A55:E55"/>
-    <mergeCell ref="A20:E20"/>
+  <mergeCells count="23">
+    <mergeCell ref="A120:E120"/>
+    <mergeCell ref="A122:E122"/>
     <mergeCell ref="A114:E114"/>
     <mergeCell ref="A74:E74"/>
     <mergeCell ref="A102:E102"/>
@@ -2776,6 +2809,15 @@
     <mergeCell ref="A112:E112"/>
     <mergeCell ref="A105:E105"/>
     <mergeCell ref="A84:E84"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A43:E43"/>
+    <mergeCell ref="A48:E48"/>
+    <mergeCell ref="A64:E64"/>
+    <mergeCell ref="A62:E62"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="A55:E55"/>
+    <mergeCell ref="A20:E20"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E5" r:id="rId1" xr:uid="{A4A7D2A0-BF27-44D8-8568-97857CB06FB1}"/>

--- a/syllabus.xlsx
+++ b/syllabus.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anisa Spring\course files\anisa-spring-course\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anisa_Spring\course_files\anisa-spring-course\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4BDCAAD-9CB3-45AE-B54E-3AC920E777B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4CD6392-FDFD-4FDB-84EA-3293F6F17D40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{964B4250-0E44-43A3-827A-148A57DAA8FC}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="278">
   <si>
     <t>Session</t>
   </si>
@@ -794,9 +794,6 @@
     <t>Security</t>
   </si>
   <si>
-    <t>Cloud</t>
-  </si>
-  <si>
     <t>JPA</t>
   </si>
   <si>
@@ -893,18 +890,9 @@
     <t>Session 21</t>
   </si>
   <si>
-    <t>Reactive</t>
-  </si>
-  <si>
-    <t>Kafka MQ</t>
-  </si>
-  <si>
     <t>Role Based Access Control</t>
   </si>
   <si>
-    <t>Security - Permission Management on the WEB</t>
-  </si>
-  <si>
     <t>Spring Batch</t>
   </si>
   <si>
@@ -915,9 +903,6 @@
   </si>
   <si>
     <t>https://www.baeldung.com/spring-security-acl</t>
-  </si>
-  <si>
-    <t>Microservice, docker, kubernetes</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=GTln3jc5_eg</t>
@@ -970,6 +955,96 @@
   </si>
   <si>
     <t>build spring boot project and pull docker image to docker hub using  gitlab ci in gitlab-ci.yml</t>
+  </si>
+  <si>
+    <t>Session 29</t>
+  </si>
+  <si>
+    <t>create custom application and send message to kafaka message queue</t>
+  </si>
+  <si>
+    <t>Apache Kafka</t>
+  </si>
+  <si>
+    <t>Session 30</t>
+  </si>
+  <si>
+    <t>swagger</t>
+  </si>
+  <si>
+    <t>actuator</t>
+  </si>
+  <si>
+    <t>HATEOAS</t>
+  </si>
+  <si>
+    <t>link between APIs</t>
+  </si>
+  <si>
+    <t>API monitoring
+https://docs.spring.io/spring-boot/docs/current/reference/html/actuator.html</t>
+  </si>
+  <si>
+    <t>Session 33</t>
+  </si>
+  <si>
+    <t>start to tackle of Configuration Management challenges for achieve central configuration in different profiles
+create limits-service as config-client
+create spring-cloud-config-server
+create local git repository</t>
+  </si>
+  <si>
+    <t>central configuration management with microservice dependencies
+Currency Conversion &amp; currency exchange Microservice</t>
+  </si>
+  <si>
+    <t>call currenct exchange by currency conversion using restTemplate and Feign</t>
+  </si>
+  <si>
+    <t>Introduction of Microservices and challenges:
+1. configuration Managements (lots of configurations)
+2. Dynamic Scale up and scale down
+3. bundary contexts (how to boundary of each microservices)
+4. Visibility (find bug and related logs and monitoring)
+5. pack of cards (Fault Tolerance)
+https://dzone.com/articles/microservices-architecture-challenges-of-building
+https://www.springboottutorial.com/breaking-a-monolith-into-microservices</t>
+  </si>
+  <si>
+    <t>api documentation with openAPI format
+http://localhost:8080/swagger-ui</t>
+  </si>
+  <si>
+    <t>Session 36</t>
+  </si>
+  <si>
+    <t>using euruka server as a service registry in naming-server project</t>
+  </si>
+  <si>
+    <t>using euruka client in the currency conversion and corrency exchange services</t>
+  </si>
+  <si>
+    <t>Spring Cloud Gateway
+https://www.baeldung.com/spring-cloud-gateway
+zuul for old version</t>
+  </si>
+  <si>
+    <t>https://www.confluent.io/kafka-summit-san-francisco-2019/event-sourcing-with-spring-boot-and-apache-kafka/</t>
+  </si>
+  <si>
+    <t>Introduction to Reactive Programming</t>
+  </si>
+  <si>
+    <t>Introduction to ElasticSearch</t>
+  </si>
+  <si>
+    <t>Introduction to kotlin</t>
+  </si>
+  <si>
+    <t>Building rest app using gradle</t>
+  </si>
+  <si>
+    <t>implement Kafka Event Sourcing</t>
   </si>
 </sst>
 </file>
@@ -1058,7 +1133,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1092,6 +1167,9 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1412,10 +1490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0700D7B-E2DB-4A90-93C9-5BD63601E41E}">
-  <dimension ref="A1:E149"/>
+  <dimension ref="A1:E150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B118" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D124" sqref="D124"/>
+    <sheetView tabSelected="1" topLeftCell="A133" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B151" sqref="B151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1444,13 +1522,13 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="7"/>
@@ -1712,13 +1790,13 @@
       <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
@@ -1882,13 +1960,13 @@
       <c r="E31" s="4"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="17" t="s">
+      <c r="A32" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
@@ -2033,13 +2111,13 @@
       <c r="E42" s="4"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="17" t="s">
+      <c r="A43" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
     </row>
     <row r="44" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
@@ -2098,15 +2176,15 @@
       <c r="E47" s="4"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="17" t="s">
+      <c r="A48" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="B48" s="17"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="17"/>
-    </row>
-    <row r="49" spans="1:5" ht="127.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="18"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="18"/>
+      <c r="E48" s="18"/>
+    </row>
+    <row r="49" spans="1:5" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A49" s="4"/>
       <c r="B49" s="4" t="s">
         <v>151</v>
@@ -2197,13 +2275,13 @@
       <c r="E54" s="4"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="17" t="s">
+      <c r="A55" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="B55" s="17"/>
-      <c r="C55" s="17"/>
-      <c r="D55" s="17"/>
-      <c r="E55" s="17"/>
+      <c r="B55" s="18"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="18"/>
+      <c r="E55" s="18"/>
     </row>
     <row r="56" spans="1:5" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
@@ -2236,13 +2314,13 @@
       <c r="E57" s="4"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="17" t="s">
+      <c r="A58" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="B58" s="17"/>
-      <c r="C58" s="17"/>
-      <c r="D58" s="17"/>
-      <c r="E58" s="17"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="18"/>
+      <c r="E58" s="18"/>
     </row>
     <row r="59" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
@@ -2290,13 +2368,13 @@
       <c r="E61" s="4"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="17" t="s">
+      <c r="A62" s="18" t="s">
         <v>174</v>
       </c>
-      <c r="B62" s="17"/>
-      <c r="C62" s="17"/>
-      <c r="D62" s="17"/>
-      <c r="E62" s="17"/>
+      <c r="B62" s="18"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="18"/>
+      <c r="E62" s="18"/>
     </row>
     <row r="63" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
@@ -2314,13 +2392,13 @@
       <c r="E63" s="4"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="17" t="s">
+      <c r="A64" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="B64" s="17"/>
-      <c r="C64" s="17"/>
-      <c r="D64" s="17"/>
-      <c r="E64" s="17"/>
+      <c r="B64" s="18"/>
+      <c r="C64" s="18"/>
+      <c r="D64" s="18"/>
+      <c r="E64" s="18"/>
     </row>
     <row r="65" spans="1:5" ht="269.39999999999998" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4"/>
@@ -2345,13 +2423,13 @@
       <c r="E66" s="4"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="17" t="s">
+      <c r="A67" s="18" t="s">
         <v>184</v>
       </c>
-      <c r="B67" s="17"/>
-      <c r="C67" s="17"/>
-      <c r="D67" s="17"/>
-      <c r="E67" s="17"/>
+      <c r="B67" s="18"/>
+      <c r="C67" s="18"/>
+      <c r="D67" s="18"/>
+      <c r="E67" s="18"/>
     </row>
     <row r="68" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A68" s="4"/>
@@ -2406,13 +2484,13 @@
       <c r="E71" s="4"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="17" t="s">
+      <c r="A72" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="B72" s="17"/>
-      <c r="C72" s="17"/>
-      <c r="D72" s="17"/>
-      <c r="E72" s="17"/>
+      <c r="B72" s="18"/>
+      <c r="C72" s="18"/>
+      <c r="D72" s="18"/>
+      <c r="E72" s="18"/>
     </row>
     <row r="73" spans="1:5" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A73" s="4">
@@ -2430,13 +2508,13 @@
       <c r="E73" s="4"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="17" t="s">
+      <c r="A74" s="18" t="s">
         <v>195</v>
       </c>
-      <c r="B74" s="17"/>
-      <c r="C74" s="17"/>
-      <c r="D74" s="17"/>
-      <c r="E74" s="17"/>
+      <c r="B74" s="18"/>
+      <c r="C74" s="18"/>
+      <c r="D74" s="18"/>
+      <c r="E74" s="18"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B75" s="4" t="s">
@@ -2458,28 +2536,28 @@
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="17" t="s">
-        <v>207</v>
-      </c>
-      <c r="B77" s="17"/>
-      <c r="C77" s="17"/>
-      <c r="D77" s="17"/>
-      <c r="E77" s="17"/>
+      <c r="A77" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="B77" s="18"/>
+      <c r="C77" s="18"/>
+      <c r="D77" s="18"/>
+      <c r="E77" s="18"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C78" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="D78" s="10" t="s">
         <v>202</v>
-      </c>
-      <c r="D78" s="10" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C79" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -2487,7 +2565,7 @@
         <v>200</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -2495,319 +2573,418 @@
         <v>200</v>
       </c>
       <c r="D81" s="16" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D82" s="10" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" s="18" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="B84" s="17"/>
-      <c r="C84" s="17"/>
-      <c r="D84" s="17"/>
-      <c r="E84" s="17"/>
+      <c r="B84" s="18"/>
+      <c r="C84" s="18"/>
+      <c r="D84" s="18"/>
+      <c r="E84" s="18"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D85" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D86" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D87" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D88" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D89" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D90" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D91" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" s="18" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A92" s="17" t="s">
-        <v>217</v>
-      </c>
-      <c r="B92" s="17"/>
-      <c r="C92" s="17"/>
-      <c r="D92" s="17"/>
-      <c r="E92" s="17"/>
+      <c r="B92" s="18"/>
+      <c r="C92" s="18"/>
+      <c r="D92" s="18"/>
+      <c r="E92" s="18"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D93" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D94" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" s="18" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A95" s="17" t="s">
-        <v>220</v>
-      </c>
-      <c r="B95" s="17"/>
-      <c r="C95" s="17"/>
-      <c r="D95" s="17"/>
-      <c r="E95" s="17"/>
+      <c r="B95" s="18"/>
+      <c r="C95" s="18"/>
+      <c r="D95" s="18"/>
+      <c r="E95" s="18"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D96" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D97" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D98" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D99" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D100" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D101" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A102" s="17" t="s">
-        <v>228</v>
-      </c>
-      <c r="B102" s="17"/>
-      <c r="C102" s="17"/>
-      <c r="D102" s="17"/>
-      <c r="E102" s="17"/>
+      <c r="A102" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="B102" s="18"/>
+      <c r="C102" s="18"/>
+      <c r="D102" s="18"/>
+      <c r="E102" s="18"/>
     </row>
     <row r="103" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="C103" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D103" s="16" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D104" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105" s="18" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A105" s="17" t="s">
-        <v>231</v>
-      </c>
-      <c r="B105" s="17"/>
-      <c r="C105" s="17"/>
-      <c r="D105" s="17"/>
-      <c r="E105" s="17"/>
+      <c r="B105" s="18"/>
+      <c r="C105" s="18"/>
+      <c r="D105" s="18"/>
+      <c r="E105" s="18"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C106" t="s">
         <v>200</v>
       </c>
       <c r="D106" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A107" s="17" t="s">
-        <v>242</v>
-      </c>
-      <c r="B107" s="17"/>
-      <c r="C107" s="17"/>
-      <c r="D107" s="17"/>
-      <c r="E107" s="17"/>
+      <c r="A107" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="B107" s="18"/>
+      <c r="C107" s="18"/>
+      <c r="D107" s="18"/>
+      <c r="E107" s="18"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D108" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D109" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D110" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D111" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A112" s="17" t="s">
-        <v>243</v>
-      </c>
-      <c r="B112" s="17"/>
-      <c r="C112" s="17"/>
-      <c r="D112" s="17"/>
-      <c r="E112" s="17"/>
+      <c r="A112" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="B112" s="18"/>
+      <c r="C112" s="18"/>
+      <c r="D112" s="18"/>
+      <c r="E112" s="18"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D113" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A114" s="17" t="s">
-        <v>248</v>
-      </c>
-      <c r="B114" s="17"/>
-      <c r="C114" s="17"/>
-      <c r="D114" s="17"/>
-      <c r="E114" s="17"/>
+      <c r="A114" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="B114" s="18"/>
+      <c r="C114" s="18"/>
+      <c r="D114" s="18"/>
+      <c r="E114" s="18"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C115" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D115" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C116" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D116" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C117" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D117" s="16" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D118" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D119" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A120" s="17" t="s">
-        <v>254</v>
-      </c>
-      <c r="B120" s="17"/>
-      <c r="C120" s="17"/>
-      <c r="D120" s="17"/>
-      <c r="E120" s="17"/>
+      <c r="A120" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="B120" s="18"/>
+      <c r="C120" s="18"/>
+      <c r="D120" s="18"/>
+      <c r="E120" s="18"/>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D121" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A122" s="17" t="s">
-        <v>256</v>
-      </c>
-      <c r="B122" s="17"/>
-      <c r="C122" s="17"/>
-      <c r="D122" s="17"/>
-      <c r="E122" s="17"/>
+      <c r="A122" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="B122" s="18"/>
+      <c r="C122" s="18"/>
+      <c r="D122" s="18"/>
+      <c r="E122" s="18"/>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D123" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A124" s="18" t="s">
+        <v>253</v>
+      </c>
+      <c r="B124" s="18"/>
+      <c r="C124" s="18"/>
+      <c r="D124" s="18"/>
+      <c r="E124" s="18"/>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C125" t="s">
+        <v>255</v>
+      </c>
+      <c r="D125" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A126" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="B126" s="18"/>
+      <c r="C126" s="18"/>
+      <c r="D126" s="18"/>
+      <c r="E126" s="18"/>
+    </row>
+    <row r="127" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C127" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B143" t="s">
+      <c r="D127" s="16" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C128" t="s">
+        <v>259</v>
+      </c>
+      <c r="D128" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C129" t="s">
+        <v>258</v>
+      </c>
+      <c r="D129" s="16" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A130" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="B130" s="18"/>
+      <c r="C130" s="18"/>
+      <c r="D130" s="18"/>
+      <c r="E130" s="18"/>
+    </row>
+    <row r="131" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="D131" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="D132" s="16" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D133" s="16" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D134" s="16" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A135" s="18" t="s">
+        <v>268</v>
+      </c>
+      <c r="B135" s="18"/>
+      <c r="C135" s="18"/>
+      <c r="D135" s="18"/>
+      <c r="E135" s="18"/>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D136" s="17" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D137" s="17" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D138" s="17" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B144" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B144" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B145" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.3">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="146" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B146" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.3">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="147" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B147" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.3">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="148" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B148" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.3">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="149" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B149" t="s">
-        <v>236</v>
+        <v>276</v>
+      </c>
+    </row>
+    <row r="150" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B150" t="s">
+        <v>277</v>
+      </c>
+      <c r="C150" t="s">
+        <v>272</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="A120:E120"/>
-    <mergeCell ref="A122:E122"/>
-    <mergeCell ref="A114:E114"/>
-    <mergeCell ref="A74:E74"/>
-    <mergeCell ref="A102:E102"/>
+  <mergeCells count="27">
     <mergeCell ref="A72:E72"/>
     <mergeCell ref="A67:E67"/>
     <mergeCell ref="A92:E92"/>
     <mergeCell ref="A95:E95"/>
     <mergeCell ref="A77:E77"/>
-    <mergeCell ref="A107:E107"/>
-    <mergeCell ref="A112:E112"/>
-    <mergeCell ref="A105:E105"/>
+    <mergeCell ref="A74:E74"/>
     <mergeCell ref="A84:E84"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A32:E32"/>
@@ -2818,6 +2995,17 @@
     <mergeCell ref="A58:E58"/>
     <mergeCell ref="A55:E55"/>
     <mergeCell ref="A20:E20"/>
+    <mergeCell ref="A135:E135"/>
+    <mergeCell ref="A102:E102"/>
+    <mergeCell ref="A107:E107"/>
+    <mergeCell ref="A112:E112"/>
+    <mergeCell ref="A105:E105"/>
+    <mergeCell ref="A130:E130"/>
+    <mergeCell ref="A120:E120"/>
+    <mergeCell ref="A122:E122"/>
+    <mergeCell ref="A114:E114"/>
+    <mergeCell ref="A124:E124"/>
+    <mergeCell ref="A126:E126"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E5" r:id="rId1" xr:uid="{A4A7D2A0-BF27-44D8-8568-97857CB06FB1}"/>

--- a/syllabus.xlsx
+++ b/syllabus.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anisa_Spring\course_files\anisa-spring-course\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4CD6392-FDFD-4FDB-84EA-3293F6F17D40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2879366-225D-4338-9C0A-246ECB8B7B65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{964B4250-0E44-43A3-827A-148A57DAA8FC}"/>
   </bookViews>
@@ -23,12 +23,19 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="301">
   <si>
     <t>Session</t>
   </si>
@@ -788,9 +795,6 @@
     <t>describe anatomy of rest api, request, response, DTO and Entity</t>
   </si>
   <si>
-    <t>AOP</t>
-  </si>
-  <si>
     <t>Security</t>
   </si>
   <si>
@@ -893,9 +897,6 @@
     <t>Role Based Access Control</t>
   </si>
   <si>
-    <t>Spring Batch</t>
-  </si>
-  <si>
     <t>Spring Security ACL</t>
   </si>
   <si>
@@ -946,9 +947,6 @@
   </si>
   <si>
     <t>Session 27</t>
-  </si>
-  <si>
-    <t>docker</t>
   </si>
   <si>
     <t>Session 28</t>
@@ -1032,9 +1030,6 @@
     <t>https://www.confluent.io/kafka-summit-san-francisco-2019/event-sourcing-with-spring-boot-and-apache-kafka/</t>
   </si>
   <si>
-    <t>Introduction to Reactive Programming</t>
-  </si>
-  <si>
     <t>Introduction to ElasticSearch</t>
   </si>
   <si>
@@ -1044,7 +1039,116 @@
     <t>Building rest app using gradle</t>
   </si>
   <si>
-    <t>implement Kafka Event Sourcing</t>
+    <t>Session 37</t>
+  </si>
+  <si>
+    <t>Session 38</t>
+  </si>
+  <si>
+    <t>start all cloud container over docker</t>
+  </si>
+  <si>
+    <t>GraphQL Using Spring Boot</t>
+  </si>
+  <si>
+    <t>RabbitMQ</t>
+  </si>
+  <si>
+    <t>circuit breaker using Resilience4j
+Slide
+Spring Hystrix old verion of solution for circuit breaker 
+@Retry
+@CircuitBreaker
+@RateLimiter
+@Bulkhead (concurrent request)
+https://resilience4j.readme.io/
+https://resilience4j.readme.io/docs/circuitbreaker
+https://resilience4j.readme.io/docs/getting-started-3</t>
+  </si>
+  <si>
+    <t>Integrate ZipKin as Distributed Tracking
+docker run -dp 9411:9411 openzipkin/zipkin
+Sampling Configuration (avoid performance cost)</t>
+  </si>
+  <si>
+    <t>implement Kafka Event Sourcing (CQRS)</t>
+  </si>
+  <si>
+    <t>Session 40</t>
+  </si>
+  <si>
+    <t>GrayLog
+https://docs.graylog.org/docs/docker</t>
+  </si>
+  <si>
+    <t>Session 41</t>
+  </si>
+  <si>
+    <t>Spring batch</t>
+  </si>
+  <si>
+    <t>CSV to DataBase
+select * from batch_job_execution;
+select * from batch_job_execution_context;
+select * from batch_step_execution;
+select * from batch_step_execution_context;
+select * from user;</t>
+  </si>
+  <si>
+    <t>Redis as Distributed in-memory data structure store</t>
+  </si>
+  <si>
+    <t>spring boot evict cache</t>
+  </si>
+  <si>
+    <t>Spring Scheduler</t>
+  </si>
+  <si>
+    <t>Session 42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">docker </t>
+  </si>
+  <si>
+    <t>Spring AOP &amp; AspectJ
+Cross Cutting Concerns such as logging, Security, Performance Tracing in each layer (slide 1)
+Defining an @Before advice
+Understand AOP Terminology - Pointcut, Advice, Aspect and Join Point
+Using @After, @AfterReturning, @AfterThrowing advices
+Using @Around advice to implement performance tracing
+Use common Pointcut Configuration
+Quick summary of other Pointcuts
+Creating Custom Annotation and an Aspect for Tracking Time</t>
+  </si>
+  <si>
+    <t>ejb ARCHITECTURE OVERVIEW</t>
+  </si>
+  <si>
+    <t>challenges:</t>
+  </si>
+  <si>
+    <t>group in kafka broadcast to each group</t>
+  </si>
+  <si>
+    <t>quarkus native java code https://quarkus.io/</t>
+  </si>
+  <si>
+    <t>saga transactions with kafka</t>
+  </si>
+  <si>
+    <t>Session 43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://spring.io/reactive
+</t>
+  </si>
+  <si>
+    <t>Introduction to Reactive Programming
+Reactive Principle
+Mono and Flux</t>
+  </si>
+  <si>
+    <t>Spring WebFlux</t>
   </si>
 </sst>
 </file>
@@ -1490,10 +1594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0700D7B-E2DB-4A90-93C9-5BD63601E41E}">
-  <dimension ref="A1:E150"/>
+  <dimension ref="A1:E176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B151" sqref="B151"/>
+    <sheetView tabSelected="1" topLeftCell="B150" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C155" sqref="C155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2537,7 +2641,7 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B77" s="18"/>
       <c r="C77" s="18"/>
@@ -2546,44 +2650,44 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C78" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D78" s="10" t="s">
         <v>201</v>
-      </c>
-      <c r="D78" s="10" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C79" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C80" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C81" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D81" s="16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D82" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B84" s="18"/>
       <c r="C84" s="18"/>
@@ -2592,42 +2696,42 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D85" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D86" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D88" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D89" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D90" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D91" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B92" s="18"/>
       <c r="C92" s="18"/>
@@ -2636,17 +2740,17 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D93" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D94" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="18" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B95" s="18"/>
       <c r="C95" s="18"/>
@@ -2655,37 +2759,37 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D96" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D97" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D98" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D99" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D100" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D101" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B102" s="18"/>
       <c r="C102" s="18"/>
@@ -2694,20 +2798,20 @@
     </row>
     <row r="103" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="C103" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D103" s="16" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D104" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B105" s="18"/>
       <c r="C105" s="18"/>
@@ -2716,15 +2820,15 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C106" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D106" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="18" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B107" s="18"/>
       <c r="C107" s="18"/>
@@ -2733,27 +2837,27 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D108" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D109" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D110" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D111" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="18" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B112" s="18"/>
       <c r="C112" s="18"/>
@@ -2762,12 +2866,12 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D113" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="18" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B114" s="18"/>
       <c r="C114" s="18"/>
@@ -2776,41 +2880,41 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C115" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D115" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C116" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D116" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C117" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D117" s="16" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D118" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D119" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" s="18" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B120" s="18"/>
       <c r="C120" s="18"/>
@@ -2819,12 +2923,12 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D121" t="s">
-        <v>250</v>
+        <v>290</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" s="18" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B122" s="18"/>
       <c r="C122" s="18"/>
@@ -2833,12 +2937,12 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D123" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="18" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B124" s="18"/>
       <c r="C124" s="18"/>
@@ -2847,15 +2951,15 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C125" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D125" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="18" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B126" s="18"/>
       <c r="C126" s="18"/>
@@ -2864,31 +2968,31 @@
     </row>
     <row r="127" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C127" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D127" s="16" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C128" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D128" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="129" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C129" t="s">
+        <v>255</v>
+      </c>
+      <c r="D129" s="16" t="s">
         <v>258</v>
-      </c>
-      <c r="D129" s="16" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="18" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B130" s="18"/>
       <c r="C130" s="18"/>
@@ -2897,27 +3001,27 @@
     </row>
     <row r="131" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
       <c r="D131" s="16" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="132" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="D132" s="16" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="133" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="D133" s="16" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D134" s="16" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" s="18" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B135" s="18"/>
       <c r="C135" s="18"/>
@@ -2926,59 +3030,213 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D136" s="17" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D137" s="17" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="138" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="D138" s="17" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A139" s="18" t="s">
+        <v>273</v>
+      </c>
+      <c r="B139" s="18"/>
+      <c r="C139" s="18"/>
+      <c r="D139" s="18"/>
+      <c r="E139" s="18"/>
+    </row>
+    <row r="140" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="D140" s="17" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A141" s="18" t="s">
+        <v>274</v>
+      </c>
+      <c r="B141" s="18"/>
+      <c r="C141" s="18"/>
+      <c r="D141" s="18"/>
+      <c r="E141" s="18"/>
+    </row>
+    <row r="142" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="D142" s="17" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D143" s="17" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A144" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="B144" s="18"/>
+      <c r="C144" s="18"/>
+      <c r="D144" s="18"/>
+      <c r="E144" s="18"/>
+    </row>
+    <row r="145" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D145" s="16" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A146" s="18" t="s">
+        <v>283</v>
+      </c>
+      <c r="B146" s="18"/>
+      <c r="C146" s="18"/>
+      <c r="D146" s="18"/>
+      <c r="E146" s="18"/>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D147" s="17" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="D148" s="17" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D149" s="17" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A150" s="18" t="s">
+        <v>289</v>
+      </c>
+      <c r="B150" s="18"/>
+      <c r="C150" s="18"/>
+      <c r="D150" s="18"/>
+      <c r="E150" s="18"/>
+    </row>
+    <row r="151" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+      <c r="C151" s="17" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A152" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="B152" s="18"/>
+      <c r="C152" s="18"/>
+      <c r="D152" s="18"/>
+      <c r="E152" s="18"/>
+    </row>
+    <row r="153" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="C153" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="D153" s="16" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C154" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="161" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B161" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="162" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B162" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B144" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="145" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B145" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="146" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B146" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="147" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B147" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="148" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B148" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="149" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B149" t="s">
+    <row r="163" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B163" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="164" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B164" t="s">
+        <v>280</v>
+      </c>
+      <c r="C164" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="165" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B165" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="150" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B150" t="s">
+    <row r="166" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B166" t="s">
         <v>277</v>
       </c>
-      <c r="C150" t="s">
-        <v>272</v>
+    </row>
+    <row r="167" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B167" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="168" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B168" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="169" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B169" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="173" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B173" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="174" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B174" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="175" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B175" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="176" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B176" t="s">
+        <v>295</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="33">
+    <mergeCell ref="A152:E152"/>
+    <mergeCell ref="A150:E150"/>
+    <mergeCell ref="A102:E102"/>
+    <mergeCell ref="A107:E107"/>
+    <mergeCell ref="A112:E112"/>
+    <mergeCell ref="A105:E105"/>
+    <mergeCell ref="A130:E130"/>
+    <mergeCell ref="A120:E120"/>
+    <mergeCell ref="A146:E146"/>
+    <mergeCell ref="A144:E144"/>
+    <mergeCell ref="A122:E122"/>
+    <mergeCell ref="A114:E114"/>
+    <mergeCell ref="A124:E124"/>
+    <mergeCell ref="A126:E126"/>
+    <mergeCell ref="A139:E139"/>
+    <mergeCell ref="A141:E141"/>
+    <mergeCell ref="A135:E135"/>
     <mergeCell ref="A72:E72"/>
     <mergeCell ref="A67:E67"/>
     <mergeCell ref="A92:E92"/>
@@ -2995,17 +3253,6 @@
     <mergeCell ref="A58:E58"/>
     <mergeCell ref="A55:E55"/>
     <mergeCell ref="A20:E20"/>
-    <mergeCell ref="A135:E135"/>
-    <mergeCell ref="A102:E102"/>
-    <mergeCell ref="A107:E107"/>
-    <mergeCell ref="A112:E112"/>
-    <mergeCell ref="A105:E105"/>
-    <mergeCell ref="A130:E130"/>
-    <mergeCell ref="A120:E120"/>
-    <mergeCell ref="A122:E122"/>
-    <mergeCell ref="A114:E114"/>
-    <mergeCell ref="A124:E124"/>
-    <mergeCell ref="A126:E126"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E5" r:id="rId1" xr:uid="{A4A7D2A0-BF27-44D8-8568-97857CB06FB1}"/>

--- a/syllabus.xlsx
+++ b/syllabus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anisa_Spring\course_files\anisa-spring-course\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2879366-225D-4338-9C0A-246ECB8B7B65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D56A2236-D143-401B-8721-C4E04C342CAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{964B4250-0E44-43A3-827A-148A57DAA8FC}"/>
+    <workbookView xWindow="5856" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{964B4250-0E44-43A3-827A-148A57DAA8FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="324">
   <si>
     <t>Session</t>
   </si>
@@ -1030,15 +1030,9 @@
     <t>https://www.confluent.io/kafka-summit-san-francisco-2019/event-sourcing-with-spring-boot-and-apache-kafka/</t>
   </si>
   <si>
-    <t>Introduction to ElasticSearch</t>
-  </si>
-  <si>
     <t>Introduction to kotlin</t>
   </si>
   <si>
-    <t>Building rest app using gradle</t>
-  </si>
-  <si>
     <t>Session 37</t>
   </si>
   <si>
@@ -1046,12 +1040,6 @@
   </si>
   <si>
     <t>start all cloud container over docker</t>
-  </si>
-  <si>
-    <t>GraphQL Using Spring Boot</t>
-  </si>
-  <si>
-    <t>RabbitMQ</t>
   </si>
   <si>
     <t>circuit breaker using Resilience4j
@@ -1149,6 +1137,105 @@
   </si>
   <si>
     <t>Spring WebFlux</t>
+  </si>
+  <si>
+    <t>Session 44</t>
+  </si>
+  <si>
+    <t>ElasticSearch</t>
+  </si>
+  <si>
+    <t>download and run it</t>
+  </si>
+  <si>
+    <t>how to index a document</t>
+  </si>
+  <si>
+    <t>how to query over search engine</t>
+  </si>
+  <si>
+    <t>what is this?</t>
+  </si>
+  <si>
+    <t>most popular
+columns -&gt; fields</t>
+  </si>
+  <si>
+    <t>https://www.elastic.co/downloads/elasticsearch
+docker run --name es01 --net elastic -p 9200:9200 -p 9300:9300 -it docker.elastic.co/elasticsearch/elasticsearch:8.0.0</t>
+  </si>
+  <si>
+    <t>Session 45</t>
+  </si>
+  <si>
+    <t>syntax</t>
+  </si>
+  <si>
+    <t>control flow</t>
+  </si>
+  <si>
+    <t>Spring boot API development with kotlin</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Session 46</t>
+  </si>
+  <si>
+    <t>GraphQL</t>
+  </si>
+  <si>
+    <t>install graphQL plugin</t>
+  </si>
+  <si>
+    <t>https://graphql.org/learn/queries/</t>
+  </si>
+  <si>
+    <t>best cases</t>
+  </si>
+  <si>
+    <t>write sample graphql using spring boot</t>
+  </si>
+  <si>
+    <t>Session 47</t>
+  </si>
+  <si>
+    <t>install</t>
+  </si>
+  <si>
+    <t>introduction to redis</t>
+  </si>
+  <si>
+    <t>7 slides</t>
+  </si>
+  <si>
+    <t>basic command in redis CLI</t>
+  </si>
+  <si>
+    <t>https://geshan.com.np/blog/2022/01/redis-docker/#:~:text=Redis%20is%20an%20open%2Dsource,cache%20to%20a%20web%20application.
+docker run --rm --name test-redis redis:6.2-alpine redis-server --loglevel warning
+docker exec -it test-redis redis-cli</t>
+  </si>
+  <si>
+    <t>Create CRUD application using Spring Boot and redis</t>
+  </si>
+  <si>
+    <t>auth eYVX7EwVmmxKPCDmwMtyKVge8oLd2t81
+keys *
+set name mehdi
+get name
+del name
+override value by set
+delete all: flushall
+setex name 10 mehdi(sec)
+psetex name 10 mehdi (mils)
+ttl name (time to leave)
+setnx key value (don’t like to override)
+strlen name (length of value)
+mset name val1 val2 val3 (set multiple key values)
+incr num1 (increment value)
+decr num1 (decrement value)</t>
   </si>
 </sst>
 </file>
@@ -1594,10 +1681,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0700D7B-E2DB-4A90-93C9-5BD63601E41E}">
-  <dimension ref="A1:E176"/>
+  <dimension ref="A1:E193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B150" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C155" sqref="C155"/>
+    <sheetView tabSelected="1" topLeftCell="D171" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D172" sqref="D172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2923,7 +3010,7 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D121" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
@@ -3045,7 +3132,7 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" s="18" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B139" s="18"/>
       <c r="C139" s="18"/>
@@ -3054,12 +3141,12 @@
     </row>
     <row r="140" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
       <c r="D140" s="17" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" s="18" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B141" s="18"/>
       <c r="C141" s="18"/>
@@ -3068,17 +3155,17 @@
     </row>
     <row r="142" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="D142" s="17" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D143" s="17" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" s="18" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B144" s="18"/>
       <c r="C144" s="18"/>
@@ -3087,12 +3174,12 @@
     </row>
     <row r="145" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="D145" s="16" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" s="18" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B146" s="18"/>
       <c r="C146" s="18"/>
@@ -3101,22 +3188,22 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D147" s="17" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="148" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
       <c r="D148" s="17" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D149" s="17" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" s="18" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B150" s="18"/>
       <c r="C150" s="18"/>
@@ -3125,12 +3212,12 @@
     </row>
     <row r="151" spans="1:5" ht="144" x14ac:dyDescent="0.3">
       <c r="C151" s="17" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" s="18" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B152" s="18"/>
       <c r="C152" s="18"/>
@@ -3139,87 +3226,232 @@
     </row>
     <row r="153" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="C153" s="10" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D153" s="16" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C154" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A155" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="B155" s="18"/>
+      <c r="C155" s="18"/>
+      <c r="D155" s="18"/>
+      <c r="E155" s="18"/>
+    </row>
+    <row r="156" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B156" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C156" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="D156" s="10" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B157" s="4"/>
+      <c r="C157" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="D157" s="10" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B158" s="4"/>
+      <c r="C158" s="4" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="161" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D158" s="4"/>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B159" s="4"/>
+      <c r="C159" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="D159" s="4"/>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A160" s="18" t="s">
+        <v>305</v>
+      </c>
+      <c r="B160" s="18"/>
+      <c r="C160" s="18"/>
+      <c r="D160" s="18"/>
+      <c r="E160" s="18"/>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B161" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="162" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B162" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="163" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B163" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="164" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B164" t="s">
-        <v>280</v>
-      </c>
-      <c r="C164" t="s">
+      <c r="C161" s="6" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C162" s="6" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C163" s="6" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A164" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="B164" s="18"/>
+      <c r="C164" s="18"/>
+      <c r="D164" s="18"/>
+      <c r="E164" s="18"/>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B165" t="s">
+        <v>311</v>
+      </c>
+      <c r="C165" s="6" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C166" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="D166" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C167" s="6" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C168" s="6" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A169" s="18" t="s">
+        <v>316</v>
+      </c>
+      <c r="B169" s="18"/>
+      <c r="C169" s="18"/>
+      <c r="D169" s="18"/>
+      <c r="E169" s="18"/>
+    </row>
+    <row r="170" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="B170" t="s">
+        <v>282</v>
+      </c>
+      <c r="C170" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="D170" s="16" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C171" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="D171" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" ht="302.39999999999998" x14ac:dyDescent="0.3">
+      <c r="C172" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="D172" s="16" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C173" s="6" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="184" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B184" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="185" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B185" t="s">
+        <v>288</v>
+      </c>
+      <c r="C185" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="189" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B189" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="190" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B190" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="191" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B191" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="192" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B192" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="193" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B193" t="s">
+        <v>276</v>
+      </c>
+      <c r="C193" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="165" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B165" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="166" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B166" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="167" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B167" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="168" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B168" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="169" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B169" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="173" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B173" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="174" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B174" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="175" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B175" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="176" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B176" t="s">
-        <v>295</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="33">
+  <mergeCells count="37">
+    <mergeCell ref="A92:E92"/>
+    <mergeCell ref="A95:E95"/>
+    <mergeCell ref="A77:E77"/>
+    <mergeCell ref="A114:E114"/>
+    <mergeCell ref="A124:E124"/>
+    <mergeCell ref="A126:E126"/>
+    <mergeCell ref="A155:E155"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A43:E43"/>
+    <mergeCell ref="A48:E48"/>
+    <mergeCell ref="A64:E64"/>
+    <mergeCell ref="A62:E62"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="A55:E55"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="A135:E135"/>
+    <mergeCell ref="A72:E72"/>
+    <mergeCell ref="A67:E67"/>
+    <mergeCell ref="A139:E139"/>
+    <mergeCell ref="A141:E141"/>
+    <mergeCell ref="A164:E164"/>
+    <mergeCell ref="A169:E169"/>
+    <mergeCell ref="A160:E160"/>
+    <mergeCell ref="A74:E74"/>
+    <mergeCell ref="A84:E84"/>
     <mergeCell ref="A152:E152"/>
     <mergeCell ref="A150:E150"/>
     <mergeCell ref="A102:E102"/>
@@ -3231,28 +3463,6 @@
     <mergeCell ref="A146:E146"/>
     <mergeCell ref="A144:E144"/>
     <mergeCell ref="A122:E122"/>
-    <mergeCell ref="A114:E114"/>
-    <mergeCell ref="A124:E124"/>
-    <mergeCell ref="A126:E126"/>
-    <mergeCell ref="A139:E139"/>
-    <mergeCell ref="A141:E141"/>
-    <mergeCell ref="A135:E135"/>
-    <mergeCell ref="A72:E72"/>
-    <mergeCell ref="A67:E67"/>
-    <mergeCell ref="A92:E92"/>
-    <mergeCell ref="A95:E95"/>
-    <mergeCell ref="A77:E77"/>
-    <mergeCell ref="A74:E74"/>
-    <mergeCell ref="A84:E84"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A43:E43"/>
-    <mergeCell ref="A48:E48"/>
-    <mergeCell ref="A64:E64"/>
-    <mergeCell ref="A62:E62"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="A55:E55"/>
-    <mergeCell ref="A20:E20"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E5" r:id="rId1" xr:uid="{A4A7D2A0-BF27-44D8-8568-97857CB06FB1}"/>
